--- a/Báo cáo họp nhóm.xlsx
+++ b/Báo cáo họp nhóm.xlsx
@@ -8,14 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\HomeWorkFromSchool\TT_CSN\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{EC6454E9-5F1F-4F1B-8547-CB64936C3D62}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{11C46F29-B58F-477F-AD7B-4408698C6EA6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="2" xr2:uid="{522EEAF4-8A41-4D5C-B5E9-469D406839C5}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="3" xr2:uid="{522EEAF4-8A41-4D5C-B5E9-469D406839C5}"/>
   </bookViews>
   <sheets>
     <sheet name="Tuần 1" sheetId="1" r:id="rId1"/>
     <sheet name="Tuần 2" sheetId="2" r:id="rId2"/>
     <sheet name="Tuần 3" sheetId="3" r:id="rId3"/>
+    <sheet name="Tuần 4" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -38,12 +39,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="155" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="201" uniqueCount="63">
   <si>
     <t>Biên bản họp , làm việc nhóm</t>
-  </si>
-  <si>
-    <t>Nhóm: 3</t>
   </si>
   <si>
     <t>#</t>
@@ -215,6 +213,21 @@
   </si>
   <si>
     <t>Phân công công việc tuần 4</t>
+  </si>
+  <si>
+    <t>Báo cáo tiến độ công việc</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Báo cáo tiến độ công việc được đã được phân công </t>
+  </si>
+  <si>
+    <t>Báo cáo bản vẽ sơ bộ</t>
+  </si>
+  <si>
+    <t>Thời gian - time: 04/10/2024</t>
+  </si>
+  <si>
+    <t>Nhóm: 4</t>
   </si>
 </sst>
 </file>
@@ -444,14 +457,6 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -459,6 +464,15 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -473,11 +487,16 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -487,12 +506,6 @@
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -832,7 +845,7 @@
   <dimension ref="A1:Z991"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:F11"/>
+      <selection activeCell="A2" sqref="A2:F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -846,14 +859,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:26" ht="18" x14ac:dyDescent="0.35">
-      <c r="A1" s="10" t="s">
+      <c r="A1" s="22" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="11"/>
-      <c r="C1" s="11"/>
-      <c r="D1" s="11"/>
-      <c r="E1" s="11"/>
-      <c r="F1" s="11"/>
+      <c r="B1" s="23"/>
+      <c r="C1" s="23"/>
+      <c r="D1" s="23"/>
+      <c r="E1" s="23"/>
+      <c r="F1" s="23"/>
       <c r="G1" s="2"/>
       <c r="H1" s="2"/>
       <c r="I1" s="2"/>
@@ -876,14 +889,14 @@
       <c r="Z1" s="2"/>
     </row>
     <row r="2" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A2" s="12" t="s">
-        <v>1</v>
+      <c r="A2" s="20" t="s">
+        <v>62</v>
       </c>
-      <c r="B2" s="13"/>
-      <c r="C2" s="13"/>
-      <c r="D2" s="13"/>
-      <c r="E2" s="13"/>
-      <c r="F2" s="13"/>
+      <c r="B2" s="21"/>
+      <c r="C2" s="21"/>
+      <c r="D2" s="21"/>
+      <c r="E2" s="21"/>
+      <c r="F2" s="21"/>
       <c r="G2" s="2"/>
       <c r="H2" s="2"/>
       <c r="I2" s="2"/>
@@ -906,14 +919,14 @@
       <c r="Z2" s="2"/>
     </row>
     <row r="3" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A3" s="12" t="s">
-        <v>51</v>
+      <c r="A3" s="20" t="s">
+        <v>50</v>
       </c>
-      <c r="B3" s="13"/>
-      <c r="C3" s="13"/>
-      <c r="D3" s="13"/>
-      <c r="E3" s="13"/>
-      <c r="F3" s="13"/>
+      <c r="B3" s="21"/>
+      <c r="C3" s="21"/>
+      <c r="D3" s="21"/>
+      <c r="E3" s="21"/>
+      <c r="F3" s="21"/>
       <c r="G3" s="2"/>
       <c r="H3" s="2"/>
       <c r="I3" s="2"/>
@@ -936,14 +949,14 @@
       <c r="Z3" s="2"/>
     </row>
     <row r="4" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A4" s="12" t="s">
-        <v>15</v>
+      <c r="A4" s="20" t="s">
+        <v>14</v>
       </c>
-      <c r="B4" s="13"/>
-      <c r="C4" s="13"/>
-      <c r="D4" s="13"/>
-      <c r="E4" s="13"/>
-      <c r="F4" s="13"/>
+      <c r="B4" s="21"/>
+      <c r="C4" s="21"/>
+      <c r="D4" s="21"/>
+      <c r="E4" s="21"/>
+      <c r="F4" s="21"/>
       <c r="G4" s="2"/>
       <c r="H4" s="2"/>
       <c r="I4" s="2"/>
@@ -966,14 +979,14 @@
       <c r="Z4" s="2"/>
     </row>
     <row r="5" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A5" s="12" t="s">
-        <v>16</v>
+      <c r="A5" s="20" t="s">
+        <v>15</v>
       </c>
-      <c r="B5" s="13"/>
-      <c r="C5" s="13"/>
-      <c r="D5" s="13"/>
-      <c r="E5" s="13"/>
-      <c r="F5" s="13"/>
+      <c r="B5" s="21"/>
+      <c r="C5" s="21"/>
+      <c r="D5" s="21"/>
+      <c r="E5" s="21"/>
+      <c r="F5" s="21"/>
       <c r="G5" s="2"/>
       <c r="H5" s="2"/>
       <c r="I5" s="2"/>
@@ -996,14 +1009,14 @@
       <c r="Z5" s="2"/>
     </row>
     <row r="6" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A6" s="12" t="s">
-        <v>17</v>
+      <c r="A6" s="20" t="s">
+        <v>16</v>
       </c>
-      <c r="B6" s="13"/>
-      <c r="C6" s="13"/>
-      <c r="D6" s="13"/>
-      <c r="E6" s="13"/>
-      <c r="F6" s="13"/>
+      <c r="B6" s="21"/>
+      <c r="C6" s="21"/>
+      <c r="D6" s="21"/>
+      <c r="E6" s="21"/>
+      <c r="F6" s="21"/>
       <c r="G6" s="2"/>
       <c r="H6" s="2"/>
       <c r="I6" s="2"/>
@@ -1025,24 +1038,24 @@
       <c r="Y6" s="2"/>
       <c r="Z6" s="2"/>
     </row>
-    <row r="7" spans="1:26" ht="26.4" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A7" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="B7" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="B7" s="8" t="s">
+      <c r="C7" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="C7" s="8" t="s">
+      <c r="D7" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="D7" s="8" t="s">
+      <c r="E7" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="E7" s="8" t="s">
+      <c r="F7" s="8" t="s">
         <v>6</v>
-      </c>
-      <c r="F7" s="8" t="s">
-        <v>7</v>
       </c>
       <c r="G7" s="1"/>
       <c r="H7" s="1"/>
@@ -1070,15 +1083,15 @@
         <v>1</v>
       </c>
       <c r="B8" s="9" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C8" s="9" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D8" s="9"/>
       <c r="E8" s="9"/>
       <c r="F8" s="9" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G8" s="2"/>
       <c r="H8" s="2"/>
@@ -1106,15 +1119,15 @@
         <v>2</v>
       </c>
       <c r="B9" s="9" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C9" s="9" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D9" s="9"/>
       <c r="E9" s="9"/>
       <c r="F9" s="9" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G9" s="2"/>
       <c r="H9" s="2"/>
@@ -1142,15 +1155,15 @@
         <v>3</v>
       </c>
       <c r="B10" s="9" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C10" s="9" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D10" s="9"/>
       <c r="E10" s="9"/>
       <c r="F10" s="9" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G10" s="2"/>
       <c r="H10" s="2"/>
@@ -1178,15 +1191,15 @@
         <v>4</v>
       </c>
       <c r="B11" s="9" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C11" s="9" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D11" s="9"/>
       <c r="E11" s="9"/>
       <c r="F11" s="9" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G11" s="2"/>
       <c r="H11" s="2"/>
@@ -1232,14 +1245,14 @@
       <c r="T12" s="2"/>
     </row>
     <row r="13" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A13" s="17" t="s">
-        <v>10</v>
+      <c r="A13" s="16" t="s">
+        <v>9</v>
       </c>
-      <c r="B13" s="18"/>
-      <c r="C13" s="18"/>
-      <c r="D13" s="18"/>
-      <c r="E13" s="18"/>
-      <c r="F13" s="18"/>
+      <c r="B13" s="17"/>
+      <c r="C13" s="17"/>
+      <c r="D13" s="17"/>
+      <c r="E13" s="17"/>
+      <c r="F13" s="17"/>
       <c r="G13" s="2"/>
       <c r="H13" s="2"/>
       <c r="I13" s="2"/>
@@ -1256,22 +1269,22 @@
       <c r="T13" s="2"/>
     </row>
     <row r="14" spans="1:26" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="14" t="s">
-        <v>2</v>
+      <c r="A14" s="10" t="s">
+        <v>1</v>
       </c>
-      <c r="B14" s="14" t="s">
+      <c r="B14" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="C14" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="C14" s="14" t="s">
+      <c r="D14" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="D14" s="14" t="s">
-        <v>24</v>
+      <c r="E14" s="18" t="s">
+        <v>10</v>
       </c>
-      <c r="E14" s="19" t="s">
-        <v>11</v>
-      </c>
-      <c r="F14" s="20"/>
+      <c r="F14" s="19"/>
       <c r="G14" s="1"/>
       <c r="H14" s="1"/>
       <c r="I14" s="1"/>
@@ -1288,22 +1301,22 @@
       <c r="T14" s="1"/>
     </row>
     <row r="15" spans="1:26" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="15">
+      <c r="A15" s="11">
         <v>1</v>
       </c>
-      <c r="B15" s="15" t="s">
+      <c r="B15" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="C15" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="D15" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="E15" s="14" t="s">
         <v>25</v>
       </c>
-      <c r="C15" s="15" t="s">
-        <v>21</v>
-      </c>
-      <c r="D15" s="15" t="s">
-        <v>13</v>
-      </c>
-      <c r="E15" s="21" t="s">
-        <v>26</v>
-      </c>
-      <c r="F15" s="22"/>
+      <c r="F15" s="15"/>
       <c r="G15" s="3"/>
       <c r="H15" s="3"/>
       <c r="I15" s="3"/>
@@ -1320,22 +1333,22 @@
       <c r="T15" s="3"/>
     </row>
     <row r="16" spans="1:26" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="15">
+      <c r="A16" s="11">
         <v>2</v>
       </c>
-      <c r="B16" s="15" t="s">
+      <c r="B16" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="C16" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="D16" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="C16" s="15" t="s">
-        <v>12</v>
-      </c>
-      <c r="D16" s="15" t="s">
+      <c r="E16" s="14" t="s">
         <v>28</v>
       </c>
-      <c r="E16" s="21" t="s">
-        <v>29</v>
-      </c>
-      <c r="F16" s="22"/>
+      <c r="F16" s="15"/>
       <c r="G16" s="3"/>
       <c r="H16" s="3"/>
       <c r="I16" s="3"/>
@@ -1352,22 +1365,22 @@
       <c r="T16" s="3"/>
     </row>
     <row r="17" spans="1:20" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="16">
+      <c r="A17" s="12">
         <v>3</v>
       </c>
-      <c r="B17" s="16" t="s">
+      <c r="B17" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="C17" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="D17" s="12" t="s">
         <v>30</v>
       </c>
-      <c r="C17" s="16" t="s">
-        <v>12</v>
+      <c r="E17" s="14" t="s">
+        <v>35</v>
       </c>
-      <c r="D17" s="16" t="s">
-        <v>31</v>
-      </c>
-      <c r="E17" s="21" t="s">
-        <v>36</v>
-      </c>
-      <c r="F17" s="22"/>
+      <c r="F17" s="15"/>
       <c r="G17" s="3"/>
       <c r="H17" s="3"/>
       <c r="I17" s="3"/>
@@ -1384,22 +1397,22 @@
       <c r="T17" s="3"/>
     </row>
     <row r="18" spans="1:20" ht="31.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="16">
+      <c r="A18" s="12">
         <v>4</v>
       </c>
-      <c r="B18" s="16" t="s">
+      <c r="B18" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="C18" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="D18" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="E18" s="14" t="s">
         <v>32</v>
       </c>
-      <c r="C18" s="16" t="s">
-        <v>12</v>
-      </c>
-      <c r="D18" s="16" t="s">
-        <v>31</v>
-      </c>
-      <c r="E18" s="21" t="s">
-        <v>33</v>
-      </c>
-      <c r="F18" s="22"/>
+      <c r="F18" s="15"/>
       <c r="G18" s="3"/>
       <c r="H18" s="3"/>
       <c r="I18" s="3"/>
@@ -1416,22 +1429,22 @@
       <c r="T18" s="3"/>
     </row>
     <row r="19" spans="1:20" ht="31.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="16">
+      <c r="A19" s="12">
         <v>5</v>
       </c>
-      <c r="B19" s="16" t="s">
+      <c r="B19" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="C19" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="D19" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="E19" s="14" t="s">
         <v>34</v>
       </c>
-      <c r="C19" s="16" t="s">
-        <v>12</v>
-      </c>
-      <c r="D19" s="16" t="s">
-        <v>31</v>
-      </c>
-      <c r="E19" s="21" t="s">
-        <v>35</v>
-      </c>
-      <c r="F19" s="22"/>
+      <c r="F19" s="15"/>
       <c r="G19" s="3"/>
       <c r="H19" s="3"/>
       <c r="I19" s="3"/>
@@ -3755,7 +3768,7 @@
     </row>
     <row r="109" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A109" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B109" s="2"/>
       <c r="C109" s="2"/>
@@ -28481,6 +28494,12 @@
     </row>
   </sheetData>
   <mergeCells count="13">
+    <mergeCell ref="A6:F6"/>
+    <mergeCell ref="A1:F1"/>
+    <mergeCell ref="A2:F2"/>
+    <mergeCell ref="A3:F3"/>
+    <mergeCell ref="A4:F4"/>
+    <mergeCell ref="A5:F5"/>
     <mergeCell ref="E18:F18"/>
     <mergeCell ref="E19:F19"/>
     <mergeCell ref="A13:F13"/>
@@ -28488,12 +28507,6 @@
     <mergeCell ref="E15:F15"/>
     <mergeCell ref="E16:F16"/>
     <mergeCell ref="E17:F17"/>
-    <mergeCell ref="A6:F6"/>
-    <mergeCell ref="A1:F1"/>
-    <mergeCell ref="A2:F2"/>
-    <mergeCell ref="A3:F3"/>
-    <mergeCell ref="A4:F4"/>
-    <mergeCell ref="A5:F5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -28503,7 +28516,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E746C405-CC61-4C72-AFA1-03F70921CA16}">
   <dimension ref="A1:F19"/>
   <sheetViews>
-    <sheetView topLeftCell="A6" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="H15" sqref="H15"/>
     </sheetView>
   </sheetViews>
@@ -28517,8 +28530,317 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="20.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A1" s="23" t="s">
+      <c r="A1" s="25" t="s">
+        <v>36</v>
+      </c>
+      <c r="B1" s="25"/>
+      <c r="C1" s="25"/>
+      <c r="D1" s="25"/>
+      <c r="E1" s="25"/>
+      <c r="F1" s="25"/>
+    </row>
+    <row r="2" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A2" s="26" t="s">
+        <v>49</v>
+      </c>
+      <c r="B2" s="26"/>
+      <c r="C2" s="26"/>
+      <c r="D2" s="26"/>
+      <c r="E2" s="26"/>
+      <c r="F2" s="26"/>
+    </row>
+    <row r="3" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A3" s="26" t="s">
         <v>37</v>
+      </c>
+      <c r="B3" s="26"/>
+      <c r="C3" s="26"/>
+      <c r="D3" s="26"/>
+      <c r="E3" s="26"/>
+      <c r="F3" s="26"/>
+    </row>
+    <row r="4" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A4" s="26" t="s">
+        <v>51</v>
+      </c>
+      <c r="B4" s="26"/>
+      <c r="C4" s="26"/>
+      <c r="D4" s="26"/>
+      <c r="E4" s="26"/>
+      <c r="F4" s="26"/>
+    </row>
+    <row r="5" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A5" s="26" t="s">
+        <v>52</v>
+      </c>
+      <c r="B5" s="26"/>
+      <c r="C5" s="26"/>
+      <c r="D5" s="26"/>
+      <c r="E5" s="26"/>
+      <c r="F5" s="26"/>
+    </row>
+    <row r="6" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A6" s="27" t="s">
+        <v>38</v>
+      </c>
+      <c r="B6" s="27"/>
+      <c r="C6" s="27"/>
+      <c r="D6" s="27"/>
+      <c r="E6" s="27"/>
+      <c r="F6" s="27"/>
+    </row>
+    <row r="7" spans="1:6" ht="26.4" x14ac:dyDescent="0.3">
+      <c r="A7" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="B7" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="C7" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="D7" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="E7" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="F7" s="8" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A8" s="9">
+        <v>1</v>
+      </c>
+      <c r="B8" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="C8" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="D8" s="9"/>
+      <c r="E8" s="9"/>
+      <c r="F8" s="9" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A9" s="9">
+        <v>2</v>
+      </c>
+      <c r="B9" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="C9" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="D9" s="9"/>
+      <c r="E9" s="9"/>
+      <c r="F9" s="9" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A10" s="9">
+        <v>3</v>
+      </c>
+      <c r="B10" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="C10" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="D10" s="9"/>
+      <c r="E10" s="9"/>
+      <c r="F10" s="9" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A11" s="9">
+        <v>4</v>
+      </c>
+      <c r="B11" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="C11" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="D11" s="9"/>
+      <c r="E11" s="9"/>
+      <c r="F11" s="9" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A12" s="24"/>
+      <c r="B12" s="24"/>
+      <c r="C12" s="24"/>
+      <c r="D12" s="24"/>
+      <c r="E12" s="24"/>
+      <c r="F12" s="24"/>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A13" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="B13" s="17"/>
+      <c r="C13" s="17"/>
+      <c r="D13" s="17"/>
+      <c r="E13" s="17"/>
+      <c r="F13" s="17"/>
+    </row>
+    <row r="14" spans="1:6" ht="31.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="B14" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="C14" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="D14" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="E14" s="18" t="s">
+        <v>10</v>
+      </c>
+      <c r="F14" s="19"/>
+    </row>
+    <row r="15" spans="1:6" ht="46.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="11">
+        <v>1</v>
+      </c>
+      <c r="B15" s="12" t="s">
+        <v>39</v>
+      </c>
+      <c r="C15" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="D15" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="E15" s="14" t="s">
+        <v>41</v>
+      </c>
+      <c r="F15" s="15"/>
+    </row>
+    <row r="16" spans="1:6" ht="29.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="11">
+        <v>2</v>
+      </c>
+      <c r="B16" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="C16" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="D16" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="E16" s="14" t="s">
+        <v>41</v>
+      </c>
+      <c r="F16" s="15"/>
+    </row>
+    <row r="17" spans="1:6" ht="36" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="11">
+        <v>3</v>
+      </c>
+      <c r="B17" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="C17" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="D17" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="E17" s="14" t="s">
+        <v>41</v>
+      </c>
+      <c r="F17" s="15"/>
+    </row>
+    <row r="18" spans="1:6" ht="40.200000000000003" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="11">
+        <v>4</v>
+      </c>
+      <c r="B18" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="C18" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="D18" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="E18" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="F18" s="15"/>
+    </row>
+    <row r="19" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A19" s="12">
+        <v>5</v>
+      </c>
+      <c r="B19" s="12" t="s">
+        <v>47</v>
+      </c>
+      <c r="C19" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="D19" s="12" t="s">
+        <v>45</v>
+      </c>
+      <c r="E19" s="14" t="s">
+        <v>48</v>
+      </c>
+      <c r="F19" s="15"/>
+    </row>
+  </sheetData>
+  <mergeCells count="14">
+    <mergeCell ref="A6:F6"/>
+    <mergeCell ref="A1:F1"/>
+    <mergeCell ref="A2:F2"/>
+    <mergeCell ref="A3:F3"/>
+    <mergeCell ref="A4:F4"/>
+    <mergeCell ref="A5:F5"/>
+    <mergeCell ref="E18:F18"/>
+    <mergeCell ref="E19:F19"/>
+    <mergeCell ref="A12:F12"/>
+    <mergeCell ref="A13:F13"/>
+    <mergeCell ref="E14:F14"/>
+    <mergeCell ref="E15:F15"/>
+    <mergeCell ref="E16:F16"/>
+    <mergeCell ref="E17:F17"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DD996480-4AA7-4BB0-B201-55C14F10A27B}">
+  <dimension ref="A1:F20"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:F2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="17.44140625" customWidth="1"/>
+    <col min="2" max="2" width="44.6640625" customWidth="1"/>
+    <col min="3" max="3" width="19.44140625" customWidth="1"/>
+    <col min="4" max="4" width="16.21875" customWidth="1"/>
+    <col min="5" max="5" width="13.77734375" customWidth="1"/>
+    <col min="6" max="6" width="17" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" ht="18" x14ac:dyDescent="0.35">
+      <c r="A1" s="22" t="s">
+        <v>0</v>
       </c>
       <c r="B1" s="23"/>
       <c r="C1" s="23"/>
@@ -28526,74 +28848,74 @@
       <c r="E1" s="23"/>
       <c r="F1" s="23"/>
     </row>
-    <row r="2" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A2" s="24" t="s">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A2" s="20" t="s">
+        <v>62</v>
+      </c>
+      <c r="B2" s="21"/>
+      <c r="C2" s="21"/>
+      <c r="D2" s="21"/>
+      <c r="E2" s="21"/>
+      <c r="F2" s="21"/>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A3" s="20" t="s">
         <v>50</v>
       </c>
-      <c r="B2" s="24"/>
-      <c r="C2" s="24"/>
-      <c r="D2" s="24"/>
-      <c r="E2" s="24"/>
-      <c r="F2" s="24"/>
-    </row>
-    <row r="3" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A3" s="24" t="s">
-        <v>38</v>
+      <c r="B3" s="21"/>
+      <c r="C3" s="21"/>
+      <c r="D3" s="21"/>
+      <c r="E3" s="21"/>
+      <c r="F3" s="21"/>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A4" s="20" t="s">
+        <v>14</v>
       </c>
-      <c r="B3" s="24"/>
-      <c r="C3" s="24"/>
-      <c r="D3" s="24"/>
-      <c r="E3" s="24"/>
-      <c r="F3" s="24"/>
-    </row>
-    <row r="4" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A4" s="24" t="s">
-        <v>52</v>
+      <c r="B4" s="21"/>
+      <c r="C4" s="21"/>
+      <c r="D4" s="21"/>
+      <c r="E4" s="21"/>
+      <c r="F4" s="21"/>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A5" s="20" t="s">
+        <v>15</v>
       </c>
-      <c r="B4" s="24"/>
-      <c r="C4" s="24"/>
-      <c r="D4" s="24"/>
-      <c r="E4" s="24"/>
-      <c r="F4" s="24"/>
-    </row>
-    <row r="5" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A5" s="24" t="s">
-        <v>53</v>
+      <c r="B5" s="21"/>
+      <c r="C5" s="21"/>
+      <c r="D5" s="21"/>
+      <c r="E5" s="21"/>
+      <c r="F5" s="21"/>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A6" s="20" t="s">
+        <v>16</v>
       </c>
-      <c r="B5" s="24"/>
-      <c r="C5" s="24"/>
-      <c r="D5" s="24"/>
-      <c r="E5" s="24"/>
-      <c r="F5" s="24"/>
-    </row>
-    <row r="6" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A6" s="25" t="s">
-        <v>39</v>
+      <c r="B6" s="21"/>
+      <c r="C6" s="21"/>
+      <c r="D6" s="21"/>
+      <c r="E6" s="21"/>
+      <c r="F6" s="21"/>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A7" s="8" t="s">
+        <v>1</v>
       </c>
-      <c r="B6" s="25"/>
-      <c r="C6" s="25"/>
-      <c r="D6" s="25"/>
-      <c r="E6" s="25"/>
-      <c r="F6" s="25"/>
-    </row>
-    <row r="7" spans="1:6" ht="26.4" x14ac:dyDescent="0.3">
-      <c r="A7" s="8" t="s">
+      <c r="B7" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="B7" s="8" t="s">
+      <c r="C7" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="C7" s="8" t="s">
+      <c r="D7" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="D7" s="8" t="s">
+      <c r="E7" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="E7" s="8" t="s">
+      <c r="F7" s="8" t="s">
         <v>6</v>
-      </c>
-      <c r="F7" s="8" t="s">
-        <v>7</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.3">
@@ -28601,15 +28923,15 @@
         <v>1</v>
       </c>
       <c r="B8" s="9" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C8" s="9" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D8" s="9"/>
       <c r="E8" s="9"/>
       <c r="F8" s="9" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.3">
@@ -28617,15 +28939,15 @@
         <v>2</v>
       </c>
       <c r="B9" s="9" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C9" s="9" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D9" s="9"/>
       <c r="E9" s="9"/>
       <c r="F9" s="9" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.3">
@@ -28633,15 +28955,15 @@
         <v>3</v>
       </c>
       <c r="B10" s="9" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C10" s="9" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D10" s="9"/>
       <c r="E10" s="9"/>
       <c r="F10" s="9" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.3">
@@ -28649,147 +28971,447 @@
         <v>4</v>
       </c>
       <c r="B11" s="9" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C11" s="9" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D11" s="9"/>
       <c r="E11" s="9"/>
       <c r="F11" s="9" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A13" s="16" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A12" s="26"/>
-      <c r="B12" s="26"/>
-      <c r="C12" s="26"/>
-      <c r="D12" s="26"/>
-      <c r="E12" s="26"/>
-      <c r="F12" s="26"/>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A13" s="17" t="s">
+      <c r="B13" s="17"/>
+      <c r="C13" s="17"/>
+      <c r="D13" s="17"/>
+      <c r="E13" s="17"/>
+      <c r="F13" s="17"/>
+    </row>
+    <row r="14" spans="1:6" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="B14" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="C14" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="D14" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="E14" s="18" t="s">
         <v>10</v>
       </c>
-      <c r="B13" s="18"/>
-      <c r="C13" s="18"/>
-      <c r="D13" s="18"/>
-      <c r="E13" s="18"/>
-      <c r="F13" s="18"/>
-    </row>
-    <row r="14" spans="1:6" ht="31.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="14" t="s">
+      <c r="F14" s="19"/>
+    </row>
+    <row r="15" spans="1:6" ht="31.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="11">
+        <v>1</v>
+      </c>
+      <c r="B15" s="11" t="s">
+        <v>53</v>
+      </c>
+      <c r="C15" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="D15" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="E15" s="14" t="s">
+        <v>41</v>
+      </c>
+      <c r="F15" s="15"/>
+    </row>
+    <row r="16" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A16" s="11">
         <v>2</v>
       </c>
-      <c r="B14" s="14" t="s">
+      <c r="B16" s="13" t="s">
+        <v>54</v>
+      </c>
+      <c r="C16" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="D16" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="E16" s="14" t="s">
+        <v>41</v>
+      </c>
+      <c r="F16" s="15"/>
+    </row>
+    <row r="17" spans="1:6" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="A17" s="11">
+        <v>3</v>
+      </c>
+      <c r="B17" s="13" t="s">
+        <v>55</v>
+      </c>
+      <c r="C17" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="D17" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="E17" s="14" t="s">
+        <v>41</v>
+      </c>
+      <c r="F17" s="15"/>
+    </row>
+    <row r="18" spans="1:6" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="A18" s="11">
+        <v>4</v>
+      </c>
+      <c r="B18" s="13" t="s">
+        <v>56</v>
+      </c>
+      <c r="C18" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="D18" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="E18" s="14" t="s">
+        <v>41</v>
+      </c>
+      <c r="F18" s="15"/>
+    </row>
+    <row r="19" spans="1:6" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="A19" s="11">
+        <v>5</v>
+      </c>
+      <c r="B19" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="C19" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="D19" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="E19" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="F19" s="15"/>
+    </row>
+    <row r="20" spans="1:6" ht="31.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="12">
+        <v>6</v>
+      </c>
+      <c r="B20" s="12" t="s">
+        <v>57</v>
+      </c>
+      <c r="C20" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="D20" s="12" t="s">
+        <v>45</v>
+      </c>
+      <c r="E20" s="14" t="s">
+        <v>48</v>
+      </c>
+      <c r="F20" s="15"/>
+    </row>
+  </sheetData>
+  <mergeCells count="14">
+    <mergeCell ref="A6:F6"/>
+    <mergeCell ref="A1:F1"/>
+    <mergeCell ref="A2:F2"/>
+    <mergeCell ref="A3:F3"/>
+    <mergeCell ref="A4:F4"/>
+    <mergeCell ref="A5:F5"/>
+    <mergeCell ref="E19:F19"/>
+    <mergeCell ref="E20:F20"/>
+    <mergeCell ref="A13:F13"/>
+    <mergeCell ref="E14:F14"/>
+    <mergeCell ref="E15:F15"/>
+    <mergeCell ref="E16:F16"/>
+    <mergeCell ref="E17:F17"/>
+    <mergeCell ref="E18:F18"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BB930E56-DB83-482B-9E43-71197A40C1B4}">
+  <dimension ref="A1:F18"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="J8" sqref="J8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="13.77734375" customWidth="1"/>
+    <col min="2" max="2" width="25.109375" customWidth="1"/>
+    <col min="3" max="3" width="20.77734375" customWidth="1"/>
+    <col min="4" max="4" width="13.33203125" customWidth="1"/>
+    <col min="5" max="5" width="15.88671875" customWidth="1"/>
+    <col min="6" max="6" width="16.5546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" ht="18" x14ac:dyDescent="0.35">
+      <c r="A1" s="22" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="23"/>
+      <c r="C1" s="23"/>
+      <c r="D1" s="23"/>
+      <c r="E1" s="23"/>
+      <c r="F1" s="23"/>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A2" s="20" t="s">
+        <v>62</v>
+      </c>
+      <c r="B2" s="21"/>
+      <c r="C2" s="21"/>
+      <c r="D2" s="21"/>
+      <c r="E2" s="21"/>
+      <c r="F2" s="21"/>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A3" s="20" t="s">
+        <v>61</v>
+      </c>
+      <c r="B3" s="21"/>
+      <c r="C3" s="21"/>
+      <c r="D3" s="21"/>
+      <c r="E3" s="21"/>
+      <c r="F3" s="21"/>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A4" s="20" t="s">
+        <v>14</v>
+      </c>
+      <c r="B4" s="21"/>
+      <c r="C4" s="21"/>
+      <c r="D4" s="21"/>
+      <c r="E4" s="21"/>
+      <c r="F4" s="21"/>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A5" s="20" t="s">
+        <v>15</v>
+      </c>
+      <c r="B5" s="21"/>
+      <c r="C5" s="21"/>
+      <c r="D5" s="21"/>
+      <c r="E5" s="21"/>
+      <c r="F5" s="21"/>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A6" s="20" t="s">
+        <v>16</v>
+      </c>
+      <c r="B6" s="21"/>
+      <c r="C6" s="21"/>
+      <c r="D6" s="21"/>
+      <c r="E6" s="21"/>
+      <c r="F6" s="21"/>
+    </row>
+    <row r="7" spans="1:6" ht="46.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="B7" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="C7" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="D7" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="E7" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="F7" s="8" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" ht="46.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="9">
+        <v>1</v>
+      </c>
+      <c r="B8" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="C8" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="D8" s="9"/>
+      <c r="E8" s="9"/>
+      <c r="F8" s="9" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" ht="46.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="9">
+        <v>2</v>
+      </c>
+      <c r="B9" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="C9" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="D9" s="9"/>
+      <c r="E9" s="9"/>
+      <c r="F9" s="9" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" ht="31.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="9">
+        <v>3</v>
+      </c>
+      <c r="B10" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="C10" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="D10" s="9"/>
+      <c r="E10" s="9"/>
+      <c r="F10" s="9" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" ht="46.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="9">
+        <v>4</v>
+      </c>
+      <c r="B11" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="C11" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="D11" s="9"/>
+      <c r="E11" s="9"/>
+      <c r="F11" s="9" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A12" s="24"/>
+      <c r="B12" s="24"/>
+      <c r="C12" s="24"/>
+      <c r="D12" s="24"/>
+      <c r="E12" s="24"/>
+      <c r="F12" s="24"/>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A13" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="B13" s="17"/>
+      <c r="C13" s="17"/>
+      <c r="D13" s="17"/>
+      <c r="E13" s="17"/>
+      <c r="F13" s="17"/>
+    </row>
+    <row r="14" spans="1:6" ht="31.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="B14" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="C14" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="C14" s="14" t="s">
+      <c r="D14" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="D14" s="14" t="s">
-        <v>24</v>
+      <c r="E14" s="18" t="s">
+        <v>10</v>
       </c>
-      <c r="E14" s="19" t="s">
-        <v>11</v>
-      </c>
-      <c r="F14" s="20"/>
-    </row>
-    <row r="15" spans="1:6" ht="46.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="15">
+      <c r="F14" s="19"/>
+    </row>
+    <row r="15" spans="1:6" ht="46.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="11">
         <v>1</v>
       </c>
-      <c r="B15" s="16" t="s">
+      <c r="B15" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="C15" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="D15" s="11" t="s">
         <v>40</v>
       </c>
-      <c r="C15" s="15" t="s">
+      <c r="E15" s="14" t="s">
+        <v>59</v>
+      </c>
+      <c r="F15" s="15"/>
+    </row>
+    <row r="16" spans="1:6" ht="46.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="11">
+        <v>2</v>
+      </c>
+      <c r="B16" s="12" t="s">
+        <v>60</v>
+      </c>
+      <c r="C16" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="D16" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="E16" s="14" t="s">
+        <v>59</v>
+      </c>
+      <c r="F16" s="15"/>
+    </row>
+    <row r="17" spans="1:6" ht="46.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="11">
+        <v>3</v>
+      </c>
+      <c r="B17" s="12" t="s">
+        <v>60</v>
+      </c>
+      <c r="C17" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="D15" s="15" t="s">
-        <v>41</v>
+      <c r="D17" s="11" t="s">
+        <v>12</v>
       </c>
-      <c r="E15" s="21" t="s">
-        <v>42</v>
+      <c r="E17" s="14" t="s">
+        <v>59</v>
       </c>
-      <c r="F15" s="22"/>
-    </row>
-    <row r="16" spans="1:6" ht="29.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="15">
-        <v>2</v>
+      <c r="F17" s="15"/>
+    </row>
+    <row r="18" spans="1:6" ht="46.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="11">
+        <v>4</v>
       </c>
-      <c r="B16" s="16" t="s">
-        <v>43</v>
+      <c r="B18" s="12" t="s">
+        <v>60</v>
       </c>
-      <c r="C16" s="15" t="s">
+      <c r="C18" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="D16" s="15" t="s">
-        <v>41</v>
+      <c r="D18" s="11" t="s">
+        <v>12</v>
       </c>
-      <c r="E16" s="21" t="s">
-        <v>42</v>
+      <c r="E18" s="14" t="s">
+        <v>59</v>
       </c>
-      <c r="F16" s="22"/>
-    </row>
-    <row r="17" spans="1:6" ht="36" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="15">
-        <v>3</v>
-      </c>
-      <c r="B17" s="16" t="s">
-        <v>44</v>
-      </c>
-      <c r="C17" s="15" t="s">
-        <v>20</v>
-      </c>
-      <c r="D17" s="15" t="s">
-        <v>41</v>
-      </c>
-      <c r="E17" s="21" t="s">
-        <v>42</v>
-      </c>
-      <c r="F17" s="22"/>
-    </row>
-    <row r="18" spans="1:6" ht="40.200000000000003" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="15">
-        <v>4</v>
-      </c>
-      <c r="B18" s="16" t="s">
-        <v>45</v>
-      </c>
-      <c r="C18" s="15" t="s">
-        <v>21</v>
-      </c>
-      <c r="D18" s="15" t="s">
-        <v>46</v>
-      </c>
-      <c r="E18" s="21" t="s">
-        <v>47</v>
-      </c>
-      <c r="F18" s="22"/>
-    </row>
-    <row r="19" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A19" s="16">
-        <v>5</v>
-      </c>
-      <c r="B19" s="16" t="s">
-        <v>48</v>
-      </c>
-      <c r="C19" s="16" t="s">
-        <v>21</v>
-      </c>
-      <c r="D19" s="16" t="s">
-        <v>46</v>
-      </c>
-      <c r="E19" s="21" t="s">
-        <v>49</v>
-      </c>
-      <c r="F19" s="22"/>
+      <c r="F18" s="15"/>
     </row>
   </sheetData>
-  <mergeCells count="14">
+  <mergeCells count="13">
     <mergeCell ref="E18:F18"/>
-    <mergeCell ref="E19:F19"/>
     <mergeCell ref="A12:F12"/>
     <mergeCell ref="A13:F13"/>
     <mergeCell ref="E14:F14"/>
@@ -28805,323 +29427,4 @@
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DD996480-4AA7-4BB0-B201-55C14F10A27B}">
-  <dimension ref="A1:F20"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H16" sqref="H16"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="17.44140625" customWidth="1"/>
-    <col min="2" max="2" width="44.6640625" customWidth="1"/>
-    <col min="3" max="3" width="19.44140625" customWidth="1"/>
-    <col min="4" max="4" width="16.21875" customWidth="1"/>
-    <col min="5" max="5" width="13.77734375" customWidth="1"/>
-    <col min="6" max="6" width="17" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:6" ht="18" x14ac:dyDescent="0.35">
-      <c r="A1" s="10" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="11"/>
-      <c r="C1" s="11"/>
-      <c r="D1" s="11"/>
-      <c r="E1" s="11"/>
-      <c r="F1" s="11"/>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A2" s="12" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" s="13"/>
-      <c r="C2" s="13"/>
-      <c r="D2" s="13"/>
-      <c r="E2" s="13"/>
-      <c r="F2" s="13"/>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A3" s="12" t="s">
-        <v>51</v>
-      </c>
-      <c r="B3" s="13"/>
-      <c r="C3" s="13"/>
-      <c r="D3" s="13"/>
-      <c r="E3" s="13"/>
-      <c r="F3" s="13"/>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A4" s="12" t="s">
-        <v>15</v>
-      </c>
-      <c r="B4" s="13"/>
-      <c r="C4" s="13"/>
-      <c r="D4" s="13"/>
-      <c r="E4" s="13"/>
-      <c r="F4" s="13"/>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A5" s="12" t="s">
-        <v>16</v>
-      </c>
-      <c r="B5" s="13"/>
-      <c r="C5" s="13"/>
-      <c r="D5" s="13"/>
-      <c r="E5" s="13"/>
-      <c r="F5" s="13"/>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A6" s="12" t="s">
-        <v>17</v>
-      </c>
-      <c r="B6" s="13"/>
-      <c r="C6" s="13"/>
-      <c r="D6" s="13"/>
-      <c r="E6" s="13"/>
-      <c r="F6" s="13"/>
-    </row>
-    <row r="7" spans="1:6" ht="26.4" x14ac:dyDescent="0.3">
-      <c r="A7" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="B7" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="C7" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="D7" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="E7" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="F7" s="8" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" ht="39.6" x14ac:dyDescent="0.3">
-      <c r="A8" s="9">
-        <v>1</v>
-      </c>
-      <c r="B8" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="C8" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="D8" s="9"/>
-      <c r="E8" s="9"/>
-      <c r="F8" s="9" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" ht="26.4" x14ac:dyDescent="0.3">
-      <c r="A9" s="9">
-        <v>2</v>
-      </c>
-      <c r="B9" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="C9" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="D9" s="9"/>
-      <c r="E9" s="9"/>
-      <c r="F9" s="9" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" ht="26.4" x14ac:dyDescent="0.3">
-      <c r="A10" s="9">
-        <v>3</v>
-      </c>
-      <c r="B10" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="C10" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="D10" s="9"/>
-      <c r="E10" s="9"/>
-      <c r="F10" s="9" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" ht="39.6" x14ac:dyDescent="0.3">
-      <c r="A11" s="9">
-        <v>4</v>
-      </c>
-      <c r="B11" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="C11" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="D11" s="9"/>
-      <c r="E11" s="9"/>
-      <c r="F11" s="9" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A13" s="17" t="s">
-        <v>10</v>
-      </c>
-      <c r="B13" s="18"/>
-      <c r="C13" s="18"/>
-      <c r="D13" s="18"/>
-      <c r="E13" s="18"/>
-      <c r="F13" s="18"/>
-    </row>
-    <row r="14" spans="1:6" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="14" t="s">
-        <v>2</v>
-      </c>
-      <c r="B14" s="14" t="s">
-        <v>22</v>
-      </c>
-      <c r="C14" s="14" t="s">
-        <v>23</v>
-      </c>
-      <c r="D14" s="14" t="s">
-        <v>24</v>
-      </c>
-      <c r="E14" s="19" t="s">
-        <v>11</v>
-      </c>
-      <c r="F14" s="20"/>
-    </row>
-    <row r="15" spans="1:6" ht="31.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="15">
-        <v>1</v>
-      </c>
-      <c r="B15" s="15" t="s">
-        <v>54</v>
-      </c>
-      <c r="C15" s="15" t="s">
-        <v>21</v>
-      </c>
-      <c r="D15" s="15" t="s">
-        <v>41</v>
-      </c>
-      <c r="E15" s="21" t="s">
-        <v>42</v>
-      </c>
-      <c r="F15" s="22"/>
-    </row>
-    <row r="16" spans="1:6" ht="46.8" x14ac:dyDescent="0.3">
-      <c r="A16" s="15">
-        <v>2</v>
-      </c>
-      <c r="B16" s="27" t="s">
-        <v>55</v>
-      </c>
-      <c r="C16" s="15" t="s">
-        <v>18</v>
-      </c>
-      <c r="D16" s="15" t="s">
-        <v>13</v>
-      </c>
-      <c r="E16" s="21" t="s">
-        <v>42</v>
-      </c>
-      <c r="F16" s="22"/>
-    </row>
-    <row r="17" spans="1:6" ht="62.4" x14ac:dyDescent="0.3">
-      <c r="A17" s="15">
-        <v>3</v>
-      </c>
-      <c r="B17" s="27" t="s">
-        <v>56</v>
-      </c>
-      <c r="C17" s="15" t="s">
-        <v>19</v>
-      </c>
-      <c r="D17" s="15" t="s">
-        <v>13</v>
-      </c>
-      <c r="E17" s="21" t="s">
-        <v>42</v>
-      </c>
-      <c r="F17" s="22"/>
-    </row>
-    <row r="18" spans="1:6" ht="62.4" x14ac:dyDescent="0.3">
-      <c r="A18" s="15">
-        <v>4</v>
-      </c>
-      <c r="B18" s="27" t="s">
-        <v>57</v>
-      </c>
-      <c r="C18" s="15" t="s">
-        <v>20</v>
-      </c>
-      <c r="D18" s="15" t="s">
-        <v>13</v>
-      </c>
-      <c r="E18" s="21" t="s">
-        <v>42</v>
-      </c>
-      <c r="F18" s="22"/>
-    </row>
-    <row r="19" spans="1:6" ht="46.8" x14ac:dyDescent="0.3">
-      <c r="A19" s="15">
-        <v>5</v>
-      </c>
-      <c r="B19" s="16" t="s">
-        <v>45</v>
-      </c>
-      <c r="C19" s="15" t="s">
-        <v>21</v>
-      </c>
-      <c r="D19" s="15" t="s">
-        <v>46</v>
-      </c>
-      <c r="E19" s="21" t="s">
-        <v>47</v>
-      </c>
-      <c r="F19" s="22"/>
-    </row>
-    <row r="20" spans="1:6" ht="31.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="16">
-        <v>6</v>
-      </c>
-      <c r="B20" s="16" t="s">
-        <v>58</v>
-      </c>
-      <c r="C20" s="16" t="s">
-        <v>21</v>
-      </c>
-      <c r="D20" s="16" t="s">
-        <v>46</v>
-      </c>
-      <c r="E20" s="21" t="s">
-        <v>49</v>
-      </c>
-      <c r="F20" s="22"/>
-    </row>
-  </sheetData>
-  <mergeCells count="14">
-    <mergeCell ref="E19:F19"/>
-    <mergeCell ref="E20:F20"/>
-    <mergeCell ref="A13:F13"/>
-    <mergeCell ref="E14:F14"/>
-    <mergeCell ref="E15:F15"/>
-    <mergeCell ref="E16:F16"/>
-    <mergeCell ref="E17:F17"/>
-    <mergeCell ref="E18:F18"/>
-    <mergeCell ref="A1:F1"/>
-    <mergeCell ref="A2:F2"/>
-    <mergeCell ref="A3:F3"/>
-    <mergeCell ref="A4:F4"/>
-    <mergeCell ref="A5:F5"/>
-    <mergeCell ref="A6:F6"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>
--- a/Báo cáo họp nhóm.xlsx
+++ b/Báo cáo họp nhóm.xlsx
@@ -1,22 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\HomeWorkFromSchool\TT_CSN\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{11C46F29-B58F-477F-AD7B-4408698C6EA6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A5CB1F46-493B-4B2B-A27F-98ABA66914D8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="3" xr2:uid="{522EEAF4-8A41-4D5C-B5E9-469D406839C5}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="4" xr2:uid="{522EEAF4-8A41-4D5C-B5E9-469D406839C5}"/>
   </bookViews>
   <sheets>
     <sheet name="Tuần 1" sheetId="1" r:id="rId1"/>
     <sheet name="Tuần 2" sheetId="2" r:id="rId2"/>
     <sheet name="Tuần 3" sheetId="3" r:id="rId3"/>
     <sheet name="Tuần 4" sheetId="4" r:id="rId4"/>
+    <sheet name="Tuần 5" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -39,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="201" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="251" uniqueCount="64">
   <si>
     <t>Biên bản họp , làm việc nhóm</t>
   </si>
@@ -228,6 +229,9 @@
   </si>
   <si>
     <t>Nhóm: 4</t>
+  </si>
+  <si>
+    <t>Thời gian - time: 12/10/2024</t>
   </si>
 </sst>
 </file>
@@ -469,6 +473,14 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -487,15 +499,7 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -504,7 +508,7 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
@@ -859,14 +863,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:26" ht="18" x14ac:dyDescent="0.35">
-      <c r="A1" s="22" t="s">
+      <c r="A1" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="23"/>
-      <c r="C1" s="23"/>
-      <c r="D1" s="23"/>
-      <c r="E1" s="23"/>
-      <c r="F1" s="23"/>
+      <c r="B1" s="17"/>
+      <c r="C1" s="17"/>
+      <c r="D1" s="17"/>
+      <c r="E1" s="17"/>
+      <c r="F1" s="17"/>
       <c r="G1" s="2"/>
       <c r="H1" s="2"/>
       <c r="I1" s="2"/>
@@ -889,14 +893,14 @@
       <c r="Z1" s="2"/>
     </row>
     <row r="2" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A2" s="20" t="s">
+      <c r="A2" s="14" t="s">
         <v>62</v>
       </c>
-      <c r="B2" s="21"/>
-      <c r="C2" s="21"/>
-      <c r="D2" s="21"/>
-      <c r="E2" s="21"/>
-      <c r="F2" s="21"/>
+      <c r="B2" s="15"/>
+      <c r="C2" s="15"/>
+      <c r="D2" s="15"/>
+      <c r="E2" s="15"/>
+      <c r="F2" s="15"/>
       <c r="G2" s="2"/>
       <c r="H2" s="2"/>
       <c r="I2" s="2"/>
@@ -919,14 +923,14 @@
       <c r="Z2" s="2"/>
     </row>
     <row r="3" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A3" s="20" t="s">
+      <c r="A3" s="14" t="s">
         <v>50</v>
       </c>
-      <c r="B3" s="21"/>
-      <c r="C3" s="21"/>
-      <c r="D3" s="21"/>
-      <c r="E3" s="21"/>
-      <c r="F3" s="21"/>
+      <c r="B3" s="15"/>
+      <c r="C3" s="15"/>
+      <c r="D3" s="15"/>
+      <c r="E3" s="15"/>
+      <c r="F3" s="15"/>
       <c r="G3" s="2"/>
       <c r="H3" s="2"/>
       <c r="I3" s="2"/>
@@ -949,14 +953,14 @@
       <c r="Z3" s="2"/>
     </row>
     <row r="4" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A4" s="20" t="s">
+      <c r="A4" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="B4" s="21"/>
-      <c r="C4" s="21"/>
-      <c r="D4" s="21"/>
-      <c r="E4" s="21"/>
-      <c r="F4" s="21"/>
+      <c r="B4" s="15"/>
+      <c r="C4" s="15"/>
+      <c r="D4" s="15"/>
+      <c r="E4" s="15"/>
+      <c r="F4" s="15"/>
       <c r="G4" s="2"/>
       <c r="H4" s="2"/>
       <c r="I4" s="2"/>
@@ -979,14 +983,14 @@
       <c r="Z4" s="2"/>
     </row>
     <row r="5" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A5" s="20" t="s">
+      <c r="A5" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="B5" s="21"/>
-      <c r="C5" s="21"/>
-      <c r="D5" s="21"/>
-      <c r="E5" s="21"/>
-      <c r="F5" s="21"/>
+      <c r="B5" s="15"/>
+      <c r="C5" s="15"/>
+      <c r="D5" s="15"/>
+      <c r="E5" s="15"/>
+      <c r="F5" s="15"/>
       <c r="G5" s="2"/>
       <c r="H5" s="2"/>
       <c r="I5" s="2"/>
@@ -1009,14 +1013,14 @@
       <c r="Z5" s="2"/>
     </row>
     <row r="6" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A6" s="20" t="s">
+      <c r="A6" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="B6" s="21"/>
-      <c r="C6" s="21"/>
-      <c r="D6" s="21"/>
-      <c r="E6" s="21"/>
-      <c r="F6" s="21"/>
+      <c r="B6" s="15"/>
+      <c r="C6" s="15"/>
+      <c r="D6" s="15"/>
+      <c r="E6" s="15"/>
+      <c r="F6" s="15"/>
       <c r="G6" s="2"/>
       <c r="H6" s="2"/>
       <c r="I6" s="2"/>
@@ -1245,14 +1249,14 @@
       <c r="T12" s="2"/>
     </row>
     <row r="13" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A13" s="16" t="s">
+      <c r="A13" s="20" t="s">
         <v>9</v>
       </c>
-      <c r="B13" s="17"/>
-      <c r="C13" s="17"/>
-      <c r="D13" s="17"/>
-      <c r="E13" s="17"/>
-      <c r="F13" s="17"/>
+      <c r="B13" s="21"/>
+      <c r="C13" s="21"/>
+      <c r="D13" s="21"/>
+      <c r="E13" s="21"/>
+      <c r="F13" s="21"/>
       <c r="G13" s="2"/>
       <c r="H13" s="2"/>
       <c r="I13" s="2"/>
@@ -1281,10 +1285,10 @@
       <c r="D14" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="E14" s="18" t="s">
+      <c r="E14" s="22" t="s">
         <v>10</v>
       </c>
-      <c r="F14" s="19"/>
+      <c r="F14" s="23"/>
       <c r="G14" s="1"/>
       <c r="H14" s="1"/>
       <c r="I14" s="1"/>
@@ -1313,10 +1317,10 @@
       <c r="D15" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="E15" s="14" t="s">
+      <c r="E15" s="18" t="s">
         <v>25</v>
       </c>
-      <c r="F15" s="15"/>
+      <c r="F15" s="19"/>
       <c r="G15" s="3"/>
       <c r="H15" s="3"/>
       <c r="I15" s="3"/>
@@ -1345,10 +1349,10 @@
       <c r="D16" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="E16" s="14" t="s">
+      <c r="E16" s="18" t="s">
         <v>28</v>
       </c>
-      <c r="F16" s="15"/>
+      <c r="F16" s="19"/>
       <c r="G16" s="3"/>
       <c r="H16" s="3"/>
       <c r="I16" s="3"/>
@@ -1377,10 +1381,10 @@
       <c r="D17" s="12" t="s">
         <v>30</v>
       </c>
-      <c r="E17" s="14" t="s">
+      <c r="E17" s="18" t="s">
         <v>35</v>
       </c>
-      <c r="F17" s="15"/>
+      <c r="F17" s="19"/>
       <c r="G17" s="3"/>
       <c r="H17" s="3"/>
       <c r="I17" s="3"/>
@@ -1409,10 +1413,10 @@
       <c r="D18" s="12" t="s">
         <v>30</v>
       </c>
-      <c r="E18" s="14" t="s">
+      <c r="E18" s="18" t="s">
         <v>32</v>
       </c>
-      <c r="F18" s="15"/>
+      <c r="F18" s="19"/>
       <c r="G18" s="3"/>
       <c r="H18" s="3"/>
       <c r="I18" s="3"/>
@@ -1441,10 +1445,10 @@
       <c r="D19" s="12" t="s">
         <v>30</v>
       </c>
-      <c r="E19" s="14" t="s">
+      <c r="E19" s="18" t="s">
         <v>34</v>
       </c>
-      <c r="F19" s="15"/>
+      <c r="F19" s="19"/>
       <c r="G19" s="3"/>
       <c r="H19" s="3"/>
       <c r="I19" s="3"/>
@@ -28494,12 +28498,6 @@
     </row>
   </sheetData>
   <mergeCells count="13">
-    <mergeCell ref="A6:F6"/>
-    <mergeCell ref="A1:F1"/>
-    <mergeCell ref="A2:F2"/>
-    <mergeCell ref="A3:F3"/>
-    <mergeCell ref="A4:F4"/>
-    <mergeCell ref="A5:F5"/>
     <mergeCell ref="E18:F18"/>
     <mergeCell ref="E19:F19"/>
     <mergeCell ref="A13:F13"/>
@@ -28507,6 +28505,12 @@
     <mergeCell ref="E15:F15"/>
     <mergeCell ref="E16:F16"/>
     <mergeCell ref="E17:F17"/>
+    <mergeCell ref="A6:F6"/>
+    <mergeCell ref="A1:F1"/>
+    <mergeCell ref="A2:F2"/>
+    <mergeCell ref="A3:F3"/>
+    <mergeCell ref="A4:F4"/>
+    <mergeCell ref="A5:F5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -28580,14 +28584,14 @@
       <c r="F5" s="26"/>
     </row>
     <row r="6" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A6" s="27" t="s">
+      <c r="A6" s="24" t="s">
         <v>38</v>
       </c>
-      <c r="B6" s="27"/>
-      <c r="C6" s="27"/>
-      <c r="D6" s="27"/>
-      <c r="E6" s="27"/>
-      <c r="F6" s="27"/>
+      <c r="B6" s="24"/>
+      <c r="C6" s="24"/>
+      <c r="D6" s="24"/>
+      <c r="E6" s="24"/>
+      <c r="F6" s="24"/>
     </row>
     <row r="7" spans="1:6" ht="26.4" x14ac:dyDescent="0.3">
       <c r="A7" s="8" t="s">
@@ -28674,22 +28678,22 @@
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A12" s="24"/>
-      <c r="B12" s="24"/>
-      <c r="C12" s="24"/>
-      <c r="D12" s="24"/>
-      <c r="E12" s="24"/>
-      <c r="F12" s="24"/>
+      <c r="A12" s="27"/>
+      <c r="B12" s="27"/>
+      <c r="C12" s="27"/>
+      <c r="D12" s="27"/>
+      <c r="E12" s="27"/>
+      <c r="F12" s="27"/>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A13" s="16" t="s">
+      <c r="A13" s="20" t="s">
         <v>9</v>
       </c>
-      <c r="B13" s="17"/>
-      <c r="C13" s="17"/>
-      <c r="D13" s="17"/>
-      <c r="E13" s="17"/>
-      <c r="F13" s="17"/>
+      <c r="B13" s="21"/>
+      <c r="C13" s="21"/>
+      <c r="D13" s="21"/>
+      <c r="E13" s="21"/>
+      <c r="F13" s="21"/>
     </row>
     <row r="14" spans="1:6" ht="31.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="10" t="s">
@@ -28704,10 +28708,10 @@
       <c r="D14" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="E14" s="18" t="s">
+      <c r="E14" s="22" t="s">
         <v>10</v>
       </c>
-      <c r="F14" s="19"/>
+      <c r="F14" s="23"/>
     </row>
     <row r="15" spans="1:6" ht="46.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="11">
@@ -28722,10 +28726,10 @@
       <c r="D15" s="11" t="s">
         <v>40</v>
       </c>
-      <c r="E15" s="14" t="s">
+      <c r="E15" s="18" t="s">
         <v>41</v>
       </c>
-      <c r="F15" s="15"/>
+      <c r="F15" s="19"/>
     </row>
     <row r="16" spans="1:6" ht="29.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="11">
@@ -28740,10 +28744,10 @@
       <c r="D16" s="11" t="s">
         <v>40</v>
       </c>
-      <c r="E16" s="14" t="s">
+      <c r="E16" s="18" t="s">
         <v>41</v>
       </c>
-      <c r="F16" s="15"/>
+      <c r="F16" s="19"/>
     </row>
     <row r="17" spans="1:6" ht="36" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="11">
@@ -28758,10 +28762,10 @@
       <c r="D17" s="11" t="s">
         <v>40</v>
       </c>
-      <c r="E17" s="14" t="s">
+      <c r="E17" s="18" t="s">
         <v>41</v>
       </c>
-      <c r="F17" s="15"/>
+      <c r="F17" s="19"/>
     </row>
     <row r="18" spans="1:6" ht="40.200000000000003" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="11">
@@ -28776,10 +28780,10 @@
       <c r="D18" s="11" t="s">
         <v>45</v>
       </c>
-      <c r="E18" s="14" t="s">
+      <c r="E18" s="18" t="s">
         <v>46</v>
       </c>
-      <c r="F18" s="15"/>
+      <c r="F18" s="19"/>
     </row>
     <row r="19" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A19" s="12">
@@ -28794,19 +28798,13 @@
       <c r="D19" s="12" t="s">
         <v>45</v>
       </c>
-      <c r="E19" s="14" t="s">
+      <c r="E19" s="18" t="s">
         <v>48</v>
       </c>
-      <c r="F19" s="15"/>
+      <c r="F19" s="19"/>
     </row>
   </sheetData>
   <mergeCells count="14">
-    <mergeCell ref="A6:F6"/>
-    <mergeCell ref="A1:F1"/>
-    <mergeCell ref="A2:F2"/>
-    <mergeCell ref="A3:F3"/>
-    <mergeCell ref="A4:F4"/>
-    <mergeCell ref="A5:F5"/>
     <mergeCell ref="E18:F18"/>
     <mergeCell ref="E19:F19"/>
     <mergeCell ref="A12:F12"/>
@@ -28815,6 +28813,12 @@
     <mergeCell ref="E15:F15"/>
     <mergeCell ref="E16:F16"/>
     <mergeCell ref="E17:F17"/>
+    <mergeCell ref="A6:F6"/>
+    <mergeCell ref="A1:F1"/>
+    <mergeCell ref="A2:F2"/>
+    <mergeCell ref="A3:F3"/>
+    <mergeCell ref="A4:F4"/>
+    <mergeCell ref="A5:F5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -28839,64 +28843,64 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="18" x14ac:dyDescent="0.35">
-      <c r="A1" s="22" t="s">
+      <c r="A1" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="23"/>
-      <c r="C1" s="23"/>
-      <c r="D1" s="23"/>
-      <c r="E1" s="23"/>
-      <c r="F1" s="23"/>
+      <c r="B1" s="17"/>
+      <c r="C1" s="17"/>
+      <c r="D1" s="17"/>
+      <c r="E1" s="17"/>
+      <c r="F1" s="17"/>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A2" s="20" t="s">
+      <c r="A2" s="14" t="s">
         <v>62</v>
       </c>
-      <c r="B2" s="21"/>
-      <c r="C2" s="21"/>
-      <c r="D2" s="21"/>
-      <c r="E2" s="21"/>
-      <c r="F2" s="21"/>
+      <c r="B2" s="15"/>
+      <c r="C2" s="15"/>
+      <c r="D2" s="15"/>
+      <c r="E2" s="15"/>
+      <c r="F2" s="15"/>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A3" s="20" t="s">
+      <c r="A3" s="14" t="s">
         <v>50</v>
       </c>
-      <c r="B3" s="21"/>
-      <c r="C3" s="21"/>
-      <c r="D3" s="21"/>
-      <c r="E3" s="21"/>
-      <c r="F3" s="21"/>
+      <c r="B3" s="15"/>
+      <c r="C3" s="15"/>
+      <c r="D3" s="15"/>
+      <c r="E3" s="15"/>
+      <c r="F3" s="15"/>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A4" s="20" t="s">
+      <c r="A4" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="B4" s="21"/>
-      <c r="C4" s="21"/>
-      <c r="D4" s="21"/>
-      <c r="E4" s="21"/>
-      <c r="F4" s="21"/>
+      <c r="B4" s="15"/>
+      <c r="C4" s="15"/>
+      <c r="D4" s="15"/>
+      <c r="E4" s="15"/>
+      <c r="F4" s="15"/>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A5" s="20" t="s">
+      <c r="A5" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="B5" s="21"/>
-      <c r="C5" s="21"/>
-      <c r="D5" s="21"/>
-      <c r="E5" s="21"/>
-      <c r="F5" s="21"/>
+      <c r="B5" s="15"/>
+      <c r="C5" s="15"/>
+      <c r="D5" s="15"/>
+      <c r="E5" s="15"/>
+      <c r="F5" s="15"/>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A6" s="20" t="s">
+      <c r="A6" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="B6" s="21"/>
-      <c r="C6" s="21"/>
-      <c r="D6" s="21"/>
-      <c r="E6" s="21"/>
-      <c r="F6" s="21"/>
+      <c r="B6" s="15"/>
+      <c r="C6" s="15"/>
+      <c r="D6" s="15"/>
+      <c r="E6" s="15"/>
+      <c r="F6" s="15"/>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" s="8" t="s">
@@ -28983,14 +28987,14 @@
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A13" s="16" t="s">
+      <c r="A13" s="20" t="s">
         <v>9</v>
       </c>
-      <c r="B13" s="17"/>
-      <c r="C13" s="17"/>
-      <c r="D13" s="17"/>
-      <c r="E13" s="17"/>
-      <c r="F13" s="17"/>
+      <c r="B13" s="21"/>
+      <c r="C13" s="21"/>
+      <c r="D13" s="21"/>
+      <c r="E13" s="21"/>
+      <c r="F13" s="21"/>
     </row>
     <row r="14" spans="1:6" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="10" t="s">
@@ -29005,10 +29009,10 @@
       <c r="D14" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="E14" s="18" t="s">
+      <c r="E14" s="22" t="s">
         <v>10</v>
       </c>
-      <c r="F14" s="19"/>
+      <c r="F14" s="23"/>
     </row>
     <row r="15" spans="1:6" ht="31.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="11">
@@ -29023,10 +29027,10 @@
       <c r="D15" s="11" t="s">
         <v>40</v>
       </c>
-      <c r="E15" s="14" t="s">
+      <c r="E15" s="18" t="s">
         <v>41</v>
       </c>
-      <c r="F15" s="15"/>
+      <c r="F15" s="19"/>
     </row>
     <row r="16" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A16" s="11">
@@ -29041,10 +29045,10 @@
       <c r="D16" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="E16" s="14" t="s">
+      <c r="E16" s="18" t="s">
         <v>41</v>
       </c>
-      <c r="F16" s="15"/>
+      <c r="F16" s="19"/>
     </row>
     <row r="17" spans="1:6" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A17" s="11">
@@ -29059,10 +29063,10 @@
       <c r="D17" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="E17" s="14" t="s">
+      <c r="E17" s="18" t="s">
         <v>41</v>
       </c>
-      <c r="F17" s="15"/>
+      <c r="F17" s="19"/>
     </row>
     <row r="18" spans="1:6" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A18" s="11">
@@ -29077,10 +29081,10 @@
       <c r="D18" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="E18" s="14" t="s">
+      <c r="E18" s="18" t="s">
         <v>41</v>
       </c>
-      <c r="F18" s="15"/>
+      <c r="F18" s="19"/>
     </row>
     <row r="19" spans="1:6" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A19" s="11">
@@ -29095,10 +29099,10 @@
       <c r="D19" s="11" t="s">
         <v>45</v>
       </c>
-      <c r="E19" s="14" t="s">
+      <c r="E19" s="18" t="s">
         <v>46</v>
       </c>
-      <c r="F19" s="15"/>
+      <c r="F19" s="19"/>
     </row>
     <row r="20" spans="1:6" ht="31.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="12">
@@ -29113,19 +29117,13 @@
       <c r="D20" s="12" t="s">
         <v>45</v>
       </c>
-      <c r="E20" s="14" t="s">
+      <c r="E20" s="18" t="s">
         <v>48</v>
       </c>
-      <c r="F20" s="15"/>
+      <c r="F20" s="19"/>
     </row>
   </sheetData>
   <mergeCells count="14">
-    <mergeCell ref="A6:F6"/>
-    <mergeCell ref="A1:F1"/>
-    <mergeCell ref="A2:F2"/>
-    <mergeCell ref="A3:F3"/>
-    <mergeCell ref="A4:F4"/>
-    <mergeCell ref="A5:F5"/>
     <mergeCell ref="E19:F19"/>
     <mergeCell ref="E20:F20"/>
     <mergeCell ref="A13:F13"/>
@@ -29134,6 +29132,12 @@
     <mergeCell ref="E16:F16"/>
     <mergeCell ref="E17:F17"/>
     <mergeCell ref="E18:F18"/>
+    <mergeCell ref="A6:F6"/>
+    <mergeCell ref="A1:F1"/>
+    <mergeCell ref="A2:F2"/>
+    <mergeCell ref="A3:F3"/>
+    <mergeCell ref="A4:F4"/>
+    <mergeCell ref="A5:F5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -29143,8 +29147,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BB930E56-DB83-482B-9E43-71197A40C1B4}">
   <dimension ref="A1:F18"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="J8" sqref="J8"/>
+    <sheetView topLeftCell="A9" workbookViewId="0">
+      <selection sqref="A1:F18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -29158,64 +29162,64 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="18" x14ac:dyDescent="0.35">
-      <c r="A1" s="22" t="s">
+      <c r="A1" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="23"/>
-      <c r="C1" s="23"/>
-      <c r="D1" s="23"/>
-      <c r="E1" s="23"/>
-      <c r="F1" s="23"/>
+      <c r="B1" s="17"/>
+      <c r="C1" s="17"/>
+      <c r="D1" s="17"/>
+      <c r="E1" s="17"/>
+      <c r="F1" s="17"/>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A2" s="20" t="s">
+      <c r="A2" s="14" t="s">
         <v>62</v>
       </c>
-      <c r="B2" s="21"/>
-      <c r="C2" s="21"/>
-      <c r="D2" s="21"/>
-      <c r="E2" s="21"/>
-      <c r="F2" s="21"/>
+      <c r="B2" s="15"/>
+      <c r="C2" s="15"/>
+      <c r="D2" s="15"/>
+      <c r="E2" s="15"/>
+      <c r="F2" s="15"/>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A3" s="20" t="s">
+      <c r="A3" s="14" t="s">
         <v>61</v>
       </c>
-      <c r="B3" s="21"/>
-      <c r="C3" s="21"/>
-      <c r="D3" s="21"/>
-      <c r="E3" s="21"/>
-      <c r="F3" s="21"/>
+      <c r="B3" s="15"/>
+      <c r="C3" s="15"/>
+      <c r="D3" s="15"/>
+      <c r="E3" s="15"/>
+      <c r="F3" s="15"/>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A4" s="20" t="s">
+      <c r="A4" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="B4" s="21"/>
-      <c r="C4" s="21"/>
-      <c r="D4" s="21"/>
-      <c r="E4" s="21"/>
-      <c r="F4" s="21"/>
+      <c r="B4" s="15"/>
+      <c r="C4" s="15"/>
+      <c r="D4" s="15"/>
+      <c r="E4" s="15"/>
+      <c r="F4" s="15"/>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A5" s="20" t="s">
+      <c r="A5" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="B5" s="21"/>
-      <c r="C5" s="21"/>
-      <c r="D5" s="21"/>
-      <c r="E5" s="21"/>
-      <c r="F5" s="21"/>
+      <c r="B5" s="15"/>
+      <c r="C5" s="15"/>
+      <c r="D5" s="15"/>
+      <c r="E5" s="15"/>
+      <c r="F5" s="15"/>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A6" s="20" t="s">
+      <c r="A6" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="B6" s="21"/>
-      <c r="C6" s="21"/>
-      <c r="D6" s="21"/>
-      <c r="E6" s="21"/>
-      <c r="F6" s="21"/>
+      <c r="B6" s="15"/>
+      <c r="C6" s="15"/>
+      <c r="D6" s="15"/>
+      <c r="E6" s="15"/>
+      <c r="F6" s="15"/>
     </row>
     <row r="7" spans="1:6" ht="46.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="8" t="s">
@@ -29302,22 +29306,22 @@
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A12" s="24"/>
-      <c r="B12" s="24"/>
-      <c r="C12" s="24"/>
-      <c r="D12" s="24"/>
-      <c r="E12" s="24"/>
-      <c r="F12" s="24"/>
+      <c r="A12" s="27"/>
+      <c r="B12" s="27"/>
+      <c r="C12" s="27"/>
+      <c r="D12" s="27"/>
+      <c r="E12" s="27"/>
+      <c r="F12" s="27"/>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A13" s="16" t="s">
+      <c r="A13" s="20" t="s">
         <v>9</v>
       </c>
-      <c r="B13" s="17"/>
-      <c r="C13" s="17"/>
-      <c r="D13" s="17"/>
-      <c r="E13" s="17"/>
-      <c r="F13" s="17"/>
+      <c r="B13" s="21"/>
+      <c r="C13" s="21"/>
+      <c r="D13" s="21"/>
+      <c r="E13" s="21"/>
+      <c r="F13" s="21"/>
     </row>
     <row r="14" spans="1:6" ht="31.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="10" t="s">
@@ -29332,10 +29336,10 @@
       <c r="D14" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="E14" s="18" t="s">
+      <c r="E14" s="22" t="s">
         <v>10</v>
       </c>
-      <c r="F14" s="19"/>
+      <c r="F14" s="23"/>
     </row>
     <row r="15" spans="1:6" ht="46.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="11">
@@ -29350,10 +29354,10 @@
       <c r="D15" s="11" t="s">
         <v>40</v>
       </c>
-      <c r="E15" s="14" t="s">
+      <c r="E15" s="18" t="s">
         <v>59</v>
       </c>
-      <c r="F15" s="15"/>
+      <c r="F15" s="19"/>
     </row>
     <row r="16" spans="1:6" ht="46.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="11">
@@ -29368,10 +29372,10 @@
       <c r="D16" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="E16" s="14" t="s">
+      <c r="E16" s="18" t="s">
         <v>59</v>
       </c>
-      <c r="F16" s="15"/>
+      <c r="F16" s="19"/>
     </row>
     <row r="17" spans="1:6" ht="46.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="11">
@@ -29386,10 +29390,10 @@
       <c r="D17" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="E17" s="14" t="s">
+      <c r="E17" s="18" t="s">
         <v>59</v>
       </c>
-      <c r="F17" s="15"/>
+      <c r="F17" s="19"/>
     </row>
     <row r="18" spans="1:6" ht="46.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="11">
@@ -29404,14 +29408,322 @@
       <c r="D18" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="E18" s="14" t="s">
+      <c r="E18" s="18" t="s">
         <v>59</v>
       </c>
-      <c r="F18" s="15"/>
+      <c r="F18" s="19"/>
     </row>
   </sheetData>
   <mergeCells count="13">
+    <mergeCell ref="A6:F6"/>
+    <mergeCell ref="A1:F1"/>
+    <mergeCell ref="A2:F2"/>
+    <mergeCell ref="A3:F3"/>
+    <mergeCell ref="A4:F4"/>
+    <mergeCell ref="A5:F5"/>
     <mergeCell ref="E18:F18"/>
+    <mergeCell ref="A12:F12"/>
+    <mergeCell ref="A13:F13"/>
+    <mergeCell ref="E14:F14"/>
+    <mergeCell ref="E15:F15"/>
+    <mergeCell ref="E16:F16"/>
+    <mergeCell ref="E17:F17"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B0C0EF34-84B8-4EB7-BD3C-35510EFA3255}">
+  <dimension ref="A1:F19"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J7" sqref="J7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="14.5546875" customWidth="1"/>
+    <col min="2" max="2" width="20.5546875" customWidth="1"/>
+    <col min="3" max="3" width="26" customWidth="1"/>
+    <col min="4" max="4" width="17.33203125" customWidth="1"/>
+    <col min="6" max="6" width="18.77734375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" ht="18" x14ac:dyDescent="0.35">
+      <c r="A1" s="16" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="17"/>
+      <c r="C1" s="17"/>
+      <c r="D1" s="17"/>
+      <c r="E1" s="17"/>
+      <c r="F1" s="17"/>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A2" s="14" t="s">
+        <v>62</v>
+      </c>
+      <c r="B2" s="15"/>
+      <c r="C2" s="15"/>
+      <c r="D2" s="15"/>
+      <c r="E2" s="15"/>
+      <c r="F2" s="15"/>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A3" s="14" t="s">
+        <v>63</v>
+      </c>
+      <c r="B3" s="15"/>
+      <c r="C3" s="15"/>
+      <c r="D3" s="15"/>
+      <c r="E3" s="15"/>
+      <c r="F3" s="15"/>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A4" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="B4" s="15"/>
+      <c r="C4" s="15"/>
+      <c r="D4" s="15"/>
+      <c r="E4" s="15"/>
+      <c r="F4" s="15"/>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A5" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="B5" s="15"/>
+      <c r="C5" s="15"/>
+      <c r="D5" s="15"/>
+      <c r="E5" s="15"/>
+      <c r="F5" s="15"/>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A6" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="B6" s="15"/>
+      <c r="C6" s="15"/>
+      <c r="D6" s="15"/>
+      <c r="E6" s="15"/>
+      <c r="F6" s="15"/>
+    </row>
+    <row r="7" spans="1:6" ht="26.4" x14ac:dyDescent="0.3">
+      <c r="A7" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="B7" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="C7" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="D7" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="E7" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="F7" s="8" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" ht="39.6" x14ac:dyDescent="0.3">
+      <c r="A8" s="9">
+        <v>1</v>
+      </c>
+      <c r="B8" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="C8" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="D8" s="9"/>
+      <c r="E8" s="9"/>
+      <c r="F8" s="9" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" ht="26.4" x14ac:dyDescent="0.3">
+      <c r="A9" s="9">
+        <v>2</v>
+      </c>
+      <c r="B9" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="C9" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="D9" s="9"/>
+      <c r="E9" s="9"/>
+      <c r="F9" s="9" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" ht="26.4" x14ac:dyDescent="0.3">
+      <c r="A10" s="9">
+        <v>3</v>
+      </c>
+      <c r="B10" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="C10" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="D10" s="9"/>
+      <c r="E10" s="9"/>
+      <c r="F10" s="9" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" ht="39.6" x14ac:dyDescent="0.3">
+      <c r="A11" s="9">
+        <v>4</v>
+      </c>
+      <c r="B11" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="C11" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="D11" s="9"/>
+      <c r="E11" s="9"/>
+      <c r="F11" s="9" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A12" s="27"/>
+      <c r="B12" s="27"/>
+      <c r="C12" s="27"/>
+      <c r="D12" s="27"/>
+      <c r="E12" s="27"/>
+      <c r="F12" s="27"/>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A13" s="20" t="s">
+        <v>9</v>
+      </c>
+      <c r="B13" s="21"/>
+      <c r="C13" s="21"/>
+      <c r="D13" s="21"/>
+      <c r="E13" s="21"/>
+      <c r="F13" s="21"/>
+    </row>
+    <row r="14" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A14" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="B14" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="C14" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="D14" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="E14" s="22" t="s">
+        <v>10</v>
+      </c>
+      <c r="F14" s="23"/>
+    </row>
+    <row r="15" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A15" s="11">
+        <v>1</v>
+      </c>
+      <c r="B15" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="C15" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="D15" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="E15" s="18" t="s">
+        <v>59</v>
+      </c>
+      <c r="F15" s="19"/>
+    </row>
+    <row r="16" spans="1:6" ht="46.8" x14ac:dyDescent="0.3">
+      <c r="A16" s="11">
+        <v>2</v>
+      </c>
+      <c r="B16" s="12" t="s">
+        <v>60</v>
+      </c>
+      <c r="C16" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="D16" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="E16" s="18" t="s">
+        <v>59</v>
+      </c>
+      <c r="F16" s="19"/>
+    </row>
+    <row r="17" spans="1:6" ht="46.8" x14ac:dyDescent="0.3">
+      <c r="A17" s="11">
+        <v>3</v>
+      </c>
+      <c r="B17" s="12" t="s">
+        <v>60</v>
+      </c>
+      <c r="C17" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="D17" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="E17" s="18" t="s">
+        <v>59</v>
+      </c>
+      <c r="F17" s="19"/>
+    </row>
+    <row r="18" spans="1:6" ht="46.8" x14ac:dyDescent="0.3">
+      <c r="A18" s="11">
+        <v>4</v>
+      </c>
+      <c r="B18" s="12" t="s">
+        <v>60</v>
+      </c>
+      <c r="C18" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="D18" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="E18" s="18" t="s">
+        <v>59</v>
+      </c>
+      <c r="F18" s="19"/>
+    </row>
+    <row r="19" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A19" s="11">
+        <v>5</v>
+      </c>
+      <c r="B19" s="12" t="s">
+        <v>60</v>
+      </c>
+      <c r="C19" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="D19" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="E19" s="18" t="s">
+        <v>59</v>
+      </c>
+      <c r="F19" s="19"/>
+    </row>
+  </sheetData>
+  <mergeCells count="14">
+    <mergeCell ref="E18:F18"/>
+    <mergeCell ref="E19:F19"/>
     <mergeCell ref="A12:F12"/>
     <mergeCell ref="A13:F13"/>
     <mergeCell ref="E14:F14"/>

--- a/Báo cáo họp nhóm.xlsx
+++ b/Báo cáo họp nhóm.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\HomeWorkFromSchool\TT_CSN\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A5CB1F46-493B-4B2B-A27F-98ABA66914D8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F8078A2F-CED6-431F-B36A-679BAF84870B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="4" xr2:uid="{522EEAF4-8A41-4D5C-B5E9-469D406839C5}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="5" xr2:uid="{522EEAF4-8A41-4D5C-B5E9-469D406839C5}"/>
   </bookViews>
   <sheets>
     <sheet name="Tuần 1" sheetId="1" r:id="rId1"/>
@@ -18,6 +18,7 @@
     <sheet name="Tuần 3" sheetId="3" r:id="rId3"/>
     <sheet name="Tuần 4" sheetId="4" r:id="rId4"/>
     <sheet name="Tuần 5" sheetId="5" r:id="rId5"/>
+    <sheet name="Tuần 6" sheetId="6" r:id="rId6"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -40,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="251" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="298" uniqueCount="68">
   <si>
     <t>Biên bản họp , làm việc nhóm</t>
   </si>
@@ -232,6 +233,18 @@
   </si>
   <si>
     <t>Thời gian - time: 12/10/2024</t>
+  </si>
+  <si>
+    <t>Báo cáo mô hình vật lý các phòng</t>
+  </si>
+  <si>
+    <t>Thời gian - time: 30/10/2024</t>
+  </si>
+  <si>
+    <t>Báo cáo danh mục mua và cài đặt hệ điều hành và phần mềm</t>
+  </si>
+  <si>
+    <t>Tổng hợp</t>
   </si>
 </sst>
 </file>
@@ -29437,8 +29450,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B0C0EF34-84B8-4EB7-BD3C-35510EFA3255}">
   <dimension ref="A1:F19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J7" sqref="J7"/>
+    <sheetView topLeftCell="A9" workbookViewId="0">
+      <selection sqref="A1:F19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -29739,4 +29752,296 @@
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2321AAFC-216B-4A38-BFD8-A242EEAD7E5C}">
+  <dimension ref="A1:F18"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
+      <selection activeCell="D25" sqref="D25"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="12.5546875" customWidth="1"/>
+    <col min="2" max="2" width="27.33203125" customWidth="1"/>
+    <col min="3" max="3" width="24.21875" customWidth="1"/>
+    <col min="4" max="4" width="24.33203125" customWidth="1"/>
+    <col min="5" max="5" width="15.109375" customWidth="1"/>
+    <col min="6" max="6" width="25.88671875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" ht="18" x14ac:dyDescent="0.35">
+      <c r="A1" s="16" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="17"/>
+      <c r="C1" s="17"/>
+      <c r="D1" s="17"/>
+      <c r="E1" s="17"/>
+      <c r="F1" s="17"/>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A2" s="14" t="s">
+        <v>62</v>
+      </c>
+      <c r="B2" s="15"/>
+      <c r="C2" s="15"/>
+      <c r="D2" s="15"/>
+      <c r="E2" s="15"/>
+      <c r="F2" s="15"/>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A3" s="14" t="s">
+        <v>65</v>
+      </c>
+      <c r="B3" s="15"/>
+      <c r="C3" s="15"/>
+      <c r="D3" s="15"/>
+      <c r="E3" s="15"/>
+      <c r="F3" s="15"/>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A4" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="B4" s="15"/>
+      <c r="C4" s="15"/>
+      <c r="D4" s="15"/>
+      <c r="E4" s="15"/>
+      <c r="F4" s="15"/>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A5" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="B5" s="15"/>
+      <c r="C5" s="15"/>
+      <c r="D5" s="15"/>
+      <c r="E5" s="15"/>
+      <c r="F5" s="15"/>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A6" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="B6" s="15"/>
+      <c r="C6" s="15"/>
+      <c r="D6" s="15"/>
+      <c r="E6" s="15"/>
+      <c r="F6" s="15"/>
+    </row>
+    <row r="7" spans="1:6" ht="26.4" x14ac:dyDescent="0.3">
+      <c r="A7" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="B7" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="C7" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="D7" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="E7" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="F7" s="8" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A8" s="9">
+        <v>1</v>
+      </c>
+      <c r="B8" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="C8" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="D8" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="E8" s="9"/>
+      <c r="F8" s="9" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" ht="26.4" x14ac:dyDescent="0.3">
+      <c r="A9" s="9">
+        <v>2</v>
+      </c>
+      <c r="B9" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="C9" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="D9" s="9"/>
+      <c r="E9" s="9"/>
+      <c r="F9" s="9" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" ht="26.4" x14ac:dyDescent="0.3">
+      <c r="A10" s="9">
+        <v>3</v>
+      </c>
+      <c r="B10" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="C10" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="D10" s="9"/>
+      <c r="E10" s="9"/>
+      <c r="F10" s="9" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" ht="39.6" x14ac:dyDescent="0.3">
+      <c r="A11" s="9">
+        <v>4</v>
+      </c>
+      <c r="B11" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="C11" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="D11" s="9"/>
+      <c r="E11" s="9"/>
+      <c r="F11" s="9" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A12" s="27"/>
+      <c r="B12" s="27"/>
+      <c r="C12" s="27"/>
+      <c r="D12" s="27"/>
+      <c r="E12" s="27"/>
+      <c r="F12" s="27"/>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A13" s="20" t="s">
+        <v>9</v>
+      </c>
+      <c r="B13" s="21"/>
+      <c r="C13" s="21"/>
+      <c r="D13" s="21"/>
+      <c r="E13" s="21"/>
+      <c r="F13" s="21"/>
+    </row>
+    <row r="14" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A14" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="B14" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="C14" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="D14" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="E14" s="22" t="s">
+        <v>10</v>
+      </c>
+      <c r="F14" s="23"/>
+    </row>
+    <row r="15" spans="1:6" ht="33.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="11">
+        <v>1</v>
+      </c>
+      <c r="B15" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="C15" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="D15" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="E15" s="18" t="s">
+        <v>59</v>
+      </c>
+      <c r="F15" s="19"/>
+    </row>
+    <row r="16" spans="1:6" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="A16" s="11">
+        <v>2</v>
+      </c>
+      <c r="B16" s="12" t="s">
+        <v>64</v>
+      </c>
+      <c r="C16" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="D16" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="E16" s="18" t="s">
+        <v>59</v>
+      </c>
+      <c r="F16" s="19"/>
+    </row>
+    <row r="17" spans="1:6" ht="46.8" x14ac:dyDescent="0.3">
+      <c r="A17" s="11">
+        <v>3</v>
+      </c>
+      <c r="B17" s="12" t="s">
+        <v>66</v>
+      </c>
+      <c r="C17" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="D17" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="E17" s="18" t="s">
+        <v>59</v>
+      </c>
+      <c r="F17" s="19"/>
+    </row>
+    <row r="18" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A18" s="11">
+        <v>4</v>
+      </c>
+      <c r="B18" s="12" t="s">
+        <v>67</v>
+      </c>
+      <c r="C18" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="D18" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="E18" s="18" t="s">
+        <v>59</v>
+      </c>
+      <c r="F18" s="19"/>
+    </row>
+  </sheetData>
+  <mergeCells count="13">
+    <mergeCell ref="E18:F18"/>
+    <mergeCell ref="A12:F12"/>
+    <mergeCell ref="A13:F13"/>
+    <mergeCell ref="E14:F14"/>
+    <mergeCell ref="E15:F15"/>
+    <mergeCell ref="E16:F16"/>
+    <mergeCell ref="E17:F17"/>
+    <mergeCell ref="A1:F1"/>
+    <mergeCell ref="A2:F2"/>
+    <mergeCell ref="A3:F3"/>
+    <mergeCell ref="A4:F4"/>
+    <mergeCell ref="A5:F5"/>
+    <mergeCell ref="A6:F6"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Báo cáo họp nhóm.xlsx
+++ b/Báo cáo họp nhóm.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\HomeWorkFromSchool\TT_CSN\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F8078A2F-CED6-431F-B36A-679BAF84870B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A22351EC-C88E-4603-B282-946347A94518}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="5" xr2:uid="{522EEAF4-8A41-4D5C-B5E9-469D406839C5}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="6" xr2:uid="{522EEAF4-8A41-4D5C-B5E9-469D406839C5}"/>
   </bookViews>
   <sheets>
     <sheet name="Tuần 1" sheetId="1" r:id="rId1"/>
@@ -19,6 +19,7 @@
     <sheet name="Tuần 4" sheetId="4" r:id="rId4"/>
     <sheet name="Tuần 5" sheetId="5" r:id="rId5"/>
     <sheet name="Tuần 6" sheetId="6" r:id="rId6"/>
+    <sheet name="Tuần 7" sheetId="8" r:id="rId7"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -41,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="298" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="345" uniqueCount="71">
   <si>
     <t>Biên bản họp , làm việc nhóm</t>
   </si>
@@ -245,6 +246,15 @@
   </si>
   <si>
     <t>Tổng hợp</t>
+  </si>
+  <si>
+    <t>Báo cáo danh mục thiết bị lắp đặt</t>
+  </si>
+  <si>
+    <t>Thời gian - time: 3/11/2024</t>
+  </si>
+  <si>
+    <t>Báo cáo kế hoạc triển khai thực hiện</t>
   </si>
 </sst>
 </file>
@@ -29758,8 +29768,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2321AAFC-216B-4A38-BFD8-A242EEAD7E5C}">
   <dimension ref="A1:F18"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
-      <selection activeCell="D25" sqref="D25"/>
+    <sheetView topLeftCell="A3" workbookViewId="0">
+      <selection sqref="A1:F18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -30009,6 +30019,298 @@
       <c r="F17" s="19"/>
     </row>
     <row r="18" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A18" s="11">
+        <v>4</v>
+      </c>
+      <c r="B18" s="12" t="s">
+        <v>67</v>
+      </c>
+      <c r="C18" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="D18" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="E18" s="18" t="s">
+        <v>59</v>
+      </c>
+      <c r="F18" s="19"/>
+    </row>
+  </sheetData>
+  <mergeCells count="13">
+    <mergeCell ref="E18:F18"/>
+    <mergeCell ref="A12:F12"/>
+    <mergeCell ref="A13:F13"/>
+    <mergeCell ref="E14:F14"/>
+    <mergeCell ref="E15:F15"/>
+    <mergeCell ref="E16:F16"/>
+    <mergeCell ref="E17:F17"/>
+    <mergeCell ref="A1:F1"/>
+    <mergeCell ref="A2:F2"/>
+    <mergeCell ref="A3:F3"/>
+    <mergeCell ref="A4:F4"/>
+    <mergeCell ref="A5:F5"/>
+    <mergeCell ref="A6:F6"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1BAED867-E04B-4248-B027-D68C91DBBC1A}">
+  <dimension ref="A1:F18"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
+      <selection activeCell="E26" sqref="E26"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="13.5546875" customWidth="1"/>
+    <col min="2" max="2" width="31" customWidth="1"/>
+    <col min="3" max="3" width="22.77734375" customWidth="1"/>
+    <col min="4" max="4" width="19.5546875" customWidth="1"/>
+    <col min="5" max="5" width="25.21875" customWidth="1"/>
+    <col min="6" max="6" width="15.5546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" ht="18" x14ac:dyDescent="0.35">
+      <c r="A1" s="16" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="17"/>
+      <c r="C1" s="17"/>
+      <c r="D1" s="17"/>
+      <c r="E1" s="17"/>
+      <c r="F1" s="17"/>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A2" s="14" t="s">
+        <v>62</v>
+      </c>
+      <c r="B2" s="15"/>
+      <c r="C2" s="15"/>
+      <c r="D2" s="15"/>
+      <c r="E2" s="15"/>
+      <c r="F2" s="15"/>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A3" s="14" t="s">
+        <v>69</v>
+      </c>
+      <c r="B3" s="15"/>
+      <c r="C3" s="15"/>
+      <c r="D3" s="15"/>
+      <c r="E3" s="15"/>
+      <c r="F3" s="15"/>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A4" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="B4" s="15"/>
+      <c r="C4" s="15"/>
+      <c r="D4" s="15"/>
+      <c r="E4" s="15"/>
+      <c r="F4" s="15"/>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A5" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="B5" s="15"/>
+      <c r="C5" s="15"/>
+      <c r="D5" s="15"/>
+      <c r="E5" s="15"/>
+      <c r="F5" s="15"/>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A6" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="B6" s="15"/>
+      <c r="C6" s="15"/>
+      <c r="D6" s="15"/>
+      <c r="E6" s="15"/>
+      <c r="F6" s="15"/>
+    </row>
+    <row r="7" spans="1:6" ht="26.4" x14ac:dyDescent="0.3">
+      <c r="A7" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="B7" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="C7" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="D7" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="E7" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="F7" s="8" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A8" s="9">
+        <v>1</v>
+      </c>
+      <c r="B8" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="C8" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="D8" s="9"/>
+      <c r="E8" s="9"/>
+      <c r="F8" s="9" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" ht="26.4" x14ac:dyDescent="0.3">
+      <c r="A9" s="9">
+        <v>2</v>
+      </c>
+      <c r="B9" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="C9" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="D9" s="9"/>
+      <c r="E9" s="9"/>
+      <c r="F9" s="9" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A10" s="9">
+        <v>3</v>
+      </c>
+      <c r="B10" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="C10" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="D10" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="E10" s="9"/>
+      <c r="F10" s="9" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" ht="39.6" x14ac:dyDescent="0.3">
+      <c r="A11" s="9">
+        <v>4</v>
+      </c>
+      <c r="B11" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="C11" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="D11" s="9"/>
+      <c r="E11" s="9"/>
+      <c r="F11" s="9" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A12" s="27"/>
+      <c r="B12" s="27"/>
+      <c r="C12" s="27"/>
+      <c r="D12" s="27"/>
+      <c r="E12" s="27"/>
+      <c r="F12" s="27"/>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A13" s="20" t="s">
+        <v>9</v>
+      </c>
+      <c r="B13" s="21"/>
+      <c r="C13" s="21"/>
+      <c r="D13" s="21"/>
+      <c r="E13" s="21"/>
+      <c r="F13" s="21"/>
+    </row>
+    <row r="14" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="B14" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="C14" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="D14" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="E14" s="22" t="s">
+        <v>10</v>
+      </c>
+      <c r="F14" s="23"/>
+    </row>
+    <row r="15" spans="1:6" ht="47.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="11">
+        <v>1</v>
+      </c>
+      <c r="B15" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="C15" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="D15" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="E15" s="18" t="s">
+        <v>59</v>
+      </c>
+      <c r="F15" s="19"/>
+    </row>
+    <row r="16" spans="1:6" ht="36" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="11">
+        <v>2</v>
+      </c>
+      <c r="B16" s="12" t="s">
+        <v>68</v>
+      </c>
+      <c r="C16" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="D16" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="E16" s="18" t="s">
+        <v>59</v>
+      </c>
+      <c r="F16" s="19"/>
+    </row>
+    <row r="17" spans="1:6" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="A17" s="11">
+        <v>3</v>
+      </c>
+      <c r="B17" s="12" t="s">
+        <v>70</v>
+      </c>
+      <c r="C17" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="D17" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="E17" s="18" t="s">
+        <v>59</v>
+      </c>
+      <c r="F17" s="19"/>
+    </row>
+    <row r="18" spans="1:6" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A18" s="11">
         <v>4</v>
       </c>

--- a/Báo cáo họp nhóm.xlsx
+++ b/Báo cáo họp nhóm.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\HomeWorkFromSchool\TT_CSN\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A22351EC-C88E-4603-B282-946347A94518}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{21DBC49F-493E-4F09-AA51-AA3F585EDC1C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="6" xr2:uid="{522EEAF4-8A41-4D5C-B5E9-469D406839C5}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="5" activeTab="14" xr2:uid="{522EEAF4-8A41-4D5C-B5E9-469D406839C5}"/>
   </bookViews>
   <sheets>
     <sheet name="Tuần 1" sheetId="1" r:id="rId1"/>
@@ -20,6 +20,14 @@
     <sheet name="Tuần 5" sheetId="5" r:id="rId5"/>
     <sheet name="Tuần 6" sheetId="6" r:id="rId6"/>
     <sheet name="Tuần 7" sheetId="8" r:id="rId7"/>
+    <sheet name="Tuàn 8" sheetId="9" r:id="rId8"/>
+    <sheet name="Tuần 9" sheetId="10" r:id="rId9"/>
+    <sheet name="Tuần 10" sheetId="11" r:id="rId10"/>
+    <sheet name="Tuần 11" sheetId="12" r:id="rId11"/>
+    <sheet name="Tuần 12" sheetId="13" r:id="rId12"/>
+    <sheet name="Tuần 13" sheetId="15" r:id="rId13"/>
+    <sheet name="Tuần 14" sheetId="16" r:id="rId14"/>
+    <sheet name="Tuần 15" sheetId="17" r:id="rId15"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -42,7 +50,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="345" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="689" uniqueCount="86">
   <si>
     <t>Biên bản họp , làm việc nhóm</t>
   </si>
@@ -255,6 +263,51 @@
   </si>
   <si>
     <t>Báo cáo kế hoạc triển khai thực hiện</t>
+  </si>
+  <si>
+    <t>v</t>
+  </si>
+  <si>
+    <t>Phân công và báo cáo quá trình công việc</t>
+  </si>
+  <si>
+    <t>Vẽ phòng họp</t>
+  </si>
+  <si>
+    <t>Vẽ phòng nhân sự</t>
+  </si>
+  <si>
+    <t>Báo cáo phần việc đi dây các phòng</t>
+  </si>
+  <si>
+    <t>Vẽ phòng an ninh</t>
+  </si>
+  <si>
+    <t>Vẽ phòng marketing</t>
+  </si>
+  <si>
+    <t>Báo cáo bản vẽ phòng thiết kế</t>
+  </si>
+  <si>
+    <t>Báo cáo nhiệm vụ được giao và phân công</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Báo cáo giá tiền </t>
+  </si>
+  <si>
+    <t>Chia subnet</t>
+  </si>
+  <si>
+    <t>Báo cáo chia subnet và tạo tài khoản người dùng</t>
+  </si>
+  <si>
+    <t>Hoàn thành nhiệm vụ</t>
+  </si>
+  <si>
+    <t>Báo cáo nội dung phần 3 chương 3</t>
+  </si>
+  <si>
+    <t>Báo cáo nội dung phần 1 chương 3</t>
   </si>
 </sst>
 </file>
@@ -496,14 +549,6 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -522,6 +567,17 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -529,9 +585,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
@@ -886,14 +939,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:26" ht="18" x14ac:dyDescent="0.35">
-      <c r="A1" s="16" t="s">
+      <c r="A1" s="22" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="17"/>
-      <c r="C1" s="17"/>
-      <c r="D1" s="17"/>
-      <c r="E1" s="17"/>
-      <c r="F1" s="17"/>
+      <c r="B1" s="23"/>
+      <c r="C1" s="23"/>
+      <c r="D1" s="23"/>
+      <c r="E1" s="23"/>
+      <c r="F1" s="23"/>
       <c r="G1" s="2"/>
       <c r="H1" s="2"/>
       <c r="I1" s="2"/>
@@ -916,14 +969,14 @@
       <c r="Z1" s="2"/>
     </row>
     <row r="2" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A2" s="14" t="s">
+      <c r="A2" s="20" t="s">
         <v>62</v>
       </c>
-      <c r="B2" s="15"/>
-      <c r="C2" s="15"/>
-      <c r="D2" s="15"/>
-      <c r="E2" s="15"/>
-      <c r="F2" s="15"/>
+      <c r="B2" s="21"/>
+      <c r="C2" s="21"/>
+      <c r="D2" s="21"/>
+      <c r="E2" s="21"/>
+      <c r="F2" s="21"/>
       <c r="G2" s="2"/>
       <c r="H2" s="2"/>
       <c r="I2" s="2"/>
@@ -946,14 +999,14 @@
       <c r="Z2" s="2"/>
     </row>
     <row r="3" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A3" s="14" t="s">
+      <c r="A3" s="20" t="s">
         <v>50</v>
       </c>
-      <c r="B3" s="15"/>
-      <c r="C3" s="15"/>
-      <c r="D3" s="15"/>
-      <c r="E3" s="15"/>
-      <c r="F3" s="15"/>
+      <c r="B3" s="21"/>
+      <c r="C3" s="21"/>
+      <c r="D3" s="21"/>
+      <c r="E3" s="21"/>
+      <c r="F3" s="21"/>
       <c r="G3" s="2"/>
       <c r="H3" s="2"/>
       <c r="I3" s="2"/>
@@ -976,14 +1029,14 @@
       <c r="Z3" s="2"/>
     </row>
     <row r="4" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A4" s="14" t="s">
+      <c r="A4" s="20" t="s">
         <v>14</v>
       </c>
-      <c r="B4" s="15"/>
-      <c r="C4" s="15"/>
-      <c r="D4" s="15"/>
-      <c r="E4" s="15"/>
-      <c r="F4" s="15"/>
+      <c r="B4" s="21"/>
+      <c r="C4" s="21"/>
+      <c r="D4" s="21"/>
+      <c r="E4" s="21"/>
+      <c r="F4" s="21"/>
       <c r="G4" s="2"/>
       <c r="H4" s="2"/>
       <c r="I4" s="2"/>
@@ -1006,14 +1059,14 @@
       <c r="Z4" s="2"/>
     </row>
     <row r="5" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A5" s="14" t="s">
+      <c r="A5" s="20" t="s">
         <v>15</v>
       </c>
-      <c r="B5" s="15"/>
-      <c r="C5" s="15"/>
-      <c r="D5" s="15"/>
-      <c r="E5" s="15"/>
-      <c r="F5" s="15"/>
+      <c r="B5" s="21"/>
+      <c r="C5" s="21"/>
+      <c r="D5" s="21"/>
+      <c r="E5" s="21"/>
+      <c r="F5" s="21"/>
       <c r="G5" s="2"/>
       <c r="H5" s="2"/>
       <c r="I5" s="2"/>
@@ -1036,14 +1089,14 @@
       <c r="Z5" s="2"/>
     </row>
     <row r="6" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A6" s="14" t="s">
+      <c r="A6" s="20" t="s">
         <v>16</v>
       </c>
-      <c r="B6" s="15"/>
-      <c r="C6" s="15"/>
-      <c r="D6" s="15"/>
-      <c r="E6" s="15"/>
-      <c r="F6" s="15"/>
+      <c r="B6" s="21"/>
+      <c r="C6" s="21"/>
+      <c r="D6" s="21"/>
+      <c r="E6" s="21"/>
+      <c r="F6" s="21"/>
       <c r="G6" s="2"/>
       <c r="H6" s="2"/>
       <c r="I6" s="2"/>
@@ -1272,14 +1325,14 @@
       <c r="T12" s="2"/>
     </row>
     <row r="13" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A13" s="20" t="s">
+      <c r="A13" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="B13" s="21"/>
-      <c r="C13" s="21"/>
-      <c r="D13" s="21"/>
-      <c r="E13" s="21"/>
-      <c r="F13" s="21"/>
+      <c r="B13" s="17"/>
+      <c r="C13" s="17"/>
+      <c r="D13" s="17"/>
+      <c r="E13" s="17"/>
+      <c r="F13" s="17"/>
       <c r="G13" s="2"/>
       <c r="H13" s="2"/>
       <c r="I13" s="2"/>
@@ -1308,10 +1361,10 @@
       <c r="D14" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="E14" s="22" t="s">
+      <c r="E14" s="18" t="s">
         <v>10</v>
       </c>
-      <c r="F14" s="23"/>
+      <c r="F14" s="19"/>
       <c r="G14" s="1"/>
       <c r="H14" s="1"/>
       <c r="I14" s="1"/>
@@ -1340,10 +1393,10 @@
       <c r="D15" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="E15" s="18" t="s">
+      <c r="E15" s="14" t="s">
         <v>25</v>
       </c>
-      <c r="F15" s="19"/>
+      <c r="F15" s="15"/>
       <c r="G15" s="3"/>
       <c r="H15" s="3"/>
       <c r="I15" s="3"/>
@@ -1372,10 +1425,10 @@
       <c r="D16" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="E16" s="18" t="s">
+      <c r="E16" s="14" t="s">
         <v>28</v>
       </c>
-      <c r="F16" s="19"/>
+      <c r="F16" s="15"/>
       <c r="G16" s="3"/>
       <c r="H16" s="3"/>
       <c r="I16" s="3"/>
@@ -1404,10 +1457,10 @@
       <c r="D17" s="12" t="s">
         <v>30</v>
       </c>
-      <c r="E17" s="18" t="s">
+      <c r="E17" s="14" t="s">
         <v>35</v>
       </c>
-      <c r="F17" s="19"/>
+      <c r="F17" s="15"/>
       <c r="G17" s="3"/>
       <c r="H17" s="3"/>
       <c r="I17" s="3"/>
@@ -1436,10 +1489,10 @@
       <c r="D18" s="12" t="s">
         <v>30</v>
       </c>
-      <c r="E18" s="18" t="s">
+      <c r="E18" s="14" t="s">
         <v>32</v>
       </c>
-      <c r="F18" s="19"/>
+      <c r="F18" s="15"/>
       <c r="G18" s="3"/>
       <c r="H18" s="3"/>
       <c r="I18" s="3"/>
@@ -1468,10 +1521,10 @@
       <c r="D19" s="12" t="s">
         <v>30</v>
       </c>
-      <c r="E19" s="18" t="s">
+      <c r="E19" s="14" t="s">
         <v>34</v>
       </c>
-      <c r="F19" s="19"/>
+      <c r="F19" s="15"/>
       <c r="G19" s="3"/>
       <c r="H19" s="3"/>
       <c r="I19" s="3"/>
@@ -28521,6 +28574,12 @@
     </row>
   </sheetData>
   <mergeCells count="13">
+    <mergeCell ref="A6:F6"/>
+    <mergeCell ref="A1:F1"/>
+    <mergeCell ref="A2:F2"/>
+    <mergeCell ref="A3:F3"/>
+    <mergeCell ref="A4:F4"/>
+    <mergeCell ref="A5:F5"/>
     <mergeCell ref="E18:F18"/>
     <mergeCell ref="E19:F19"/>
     <mergeCell ref="A13:F13"/>
@@ -28528,12 +28587,1446 @@
     <mergeCell ref="E15:F15"/>
     <mergeCell ref="E16:F16"/>
     <mergeCell ref="E17:F17"/>
-    <mergeCell ref="A6:F6"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0D841AB0-A424-4AAB-8197-FC51FB49A526}">
+  <dimension ref="A1:F14"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:F14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A1" s="20" t="s">
+        <v>15</v>
+      </c>
+      <c r="B1" s="21"/>
+      <c r="C1" s="21"/>
+      <c r="D1" s="21"/>
+      <c r="E1" s="21"/>
+      <c r="F1" s="21"/>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A2" s="20" t="s">
+        <v>16</v>
+      </c>
+      <c r="B2" s="21"/>
+      <c r="C2" s="21"/>
+      <c r="D2" s="21"/>
+      <c r="E2" s="21"/>
+      <c r="F2" s="21"/>
+    </row>
+    <row r="3" spans="1:6" ht="26.4" x14ac:dyDescent="0.3">
+      <c r="A3" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="C3" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="D3" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="E3" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="F3" s="8" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="39.6" x14ac:dyDescent="0.3">
+      <c r="A4" s="9">
+        <v>1</v>
+      </c>
+      <c r="B4" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="C4" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="D4" s="9"/>
+      <c r="E4" s="9"/>
+      <c r="F4" s="9" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="26.4" x14ac:dyDescent="0.3">
+      <c r="A5" s="9">
+        <v>2</v>
+      </c>
+      <c r="B5" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="C5" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="D5" s="9" t="s">
+        <v>71</v>
+      </c>
+      <c r="E5" s="9"/>
+      <c r="F5" s="9" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="26.4" x14ac:dyDescent="0.3">
+      <c r="A6" s="9">
+        <v>3</v>
+      </c>
+      <c r="B6" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="C6" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="D6" s="9"/>
+      <c r="E6" s="9"/>
+      <c r="F6" s="9" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="39.6" x14ac:dyDescent="0.3">
+      <c r="A7" s="9">
+        <v>4</v>
+      </c>
+      <c r="B7" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="C7" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="D7" s="9"/>
+      <c r="E7" s="9"/>
+      <c r="F7" s="9" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A8" s="24"/>
+      <c r="B8" s="24"/>
+      <c r="C8" s="24"/>
+      <c r="D8" s="24"/>
+      <c r="E8" s="24"/>
+      <c r="F8" s="24"/>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A9" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="B9" s="17"/>
+      <c r="C9" s="17"/>
+      <c r="D9" s="17"/>
+      <c r="E9" s="17"/>
+      <c r="F9" s="17"/>
+    </row>
+    <row r="10" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A10" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="B10" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="C10" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="D10" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="E10" s="18" t="s">
+        <v>10</v>
+      </c>
+      <c r="F10" s="19"/>
+    </row>
+    <row r="11" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A11" s="11">
+        <v>1</v>
+      </c>
+      <c r="B11" s="11" t="s">
+        <v>75</v>
+      </c>
+      <c r="C11" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="D11" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="E11" s="14" t="s">
+        <v>59</v>
+      </c>
+      <c r="F11" s="15"/>
+    </row>
+    <row r="12" spans="1:6" ht="46.8" x14ac:dyDescent="0.3">
+      <c r="A12" s="11">
+        <v>2</v>
+      </c>
+      <c r="B12" s="12" t="s">
+        <v>76</v>
+      </c>
+      <c r="C12" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="D12" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="E12" s="14" t="s">
+        <v>59</v>
+      </c>
+      <c r="F12" s="15"/>
+    </row>
+    <row r="13" spans="1:6" ht="62.4" x14ac:dyDescent="0.3">
+      <c r="A13" s="11">
+        <v>3</v>
+      </c>
+      <c r="B13" s="12" t="s">
+        <v>77</v>
+      </c>
+      <c r="C13" t="s">
+        <v>17</v>
+      </c>
+      <c r="D13" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="E13" s="14" t="s">
+        <v>59</v>
+      </c>
+      <c r="F13" s="15"/>
+    </row>
+    <row r="14" spans="1:6" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="A14" s="11">
+        <v>4</v>
+      </c>
+      <c r="B14" s="12" t="s">
+        <v>67</v>
+      </c>
+      <c r="C14" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="D14" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="E14" s="14" t="s">
+        <v>59</v>
+      </c>
+      <c r="F14" s="15"/>
+    </row>
+  </sheetData>
+  <mergeCells count="9">
+    <mergeCell ref="E12:F12"/>
+    <mergeCell ref="E13:F13"/>
+    <mergeCell ref="E14:F14"/>
     <mergeCell ref="A1:F1"/>
     <mergeCell ref="A2:F2"/>
-    <mergeCell ref="A3:F3"/>
-    <mergeCell ref="A4:F4"/>
-    <mergeCell ref="A5:F5"/>
+    <mergeCell ref="A8:F8"/>
+    <mergeCell ref="A9:F9"/>
+    <mergeCell ref="E10:F10"/>
+    <mergeCell ref="E11:F11"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{02120DDE-4793-4DDF-9EF0-14CD5871D6B5}">
+  <dimension ref="A1:F14"/>
+  <sheetViews>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection sqref="A1:F14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A1" s="20" t="s">
+        <v>15</v>
+      </c>
+      <c r="B1" s="21"/>
+      <c r="C1" s="21"/>
+      <c r="D1" s="21"/>
+      <c r="E1" s="21"/>
+      <c r="F1" s="21"/>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A2" s="20" t="s">
+        <v>16</v>
+      </c>
+      <c r="B2" s="21"/>
+      <c r="C2" s="21"/>
+      <c r="D2" s="21"/>
+      <c r="E2" s="21"/>
+      <c r="F2" s="21"/>
+    </row>
+    <row r="3" spans="1:6" ht="26.4" x14ac:dyDescent="0.3">
+      <c r="A3" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="C3" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="D3" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="E3" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="F3" s="8" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="39.6" x14ac:dyDescent="0.3">
+      <c r="A4" s="9">
+        <v>1</v>
+      </c>
+      <c r="B4" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="C4" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="D4" s="9"/>
+      <c r="E4" s="9"/>
+      <c r="F4" s="9" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="26.4" x14ac:dyDescent="0.3">
+      <c r="A5" s="9">
+        <v>2</v>
+      </c>
+      <c r="B5" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="C5" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="D5" s="9" t="s">
+        <v>71</v>
+      </c>
+      <c r="E5" s="9"/>
+      <c r="F5" s="9" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="26.4" x14ac:dyDescent="0.3">
+      <c r="A6" s="9">
+        <v>3</v>
+      </c>
+      <c r="B6" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="C6" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="D6" s="9"/>
+      <c r="E6" s="9"/>
+      <c r="F6" s="9" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="39.6" x14ac:dyDescent="0.3">
+      <c r="A7" s="9">
+        <v>4</v>
+      </c>
+      <c r="B7" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="C7" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="D7" s="9"/>
+      <c r="E7" s="9"/>
+      <c r="F7" s="9" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A8" s="24"/>
+      <c r="B8" s="24"/>
+      <c r="C8" s="24"/>
+      <c r="D8" s="24"/>
+      <c r="E8" s="24"/>
+      <c r="F8" s="24"/>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A9" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="B9" s="17"/>
+      <c r="C9" s="17"/>
+      <c r="D9" s="17"/>
+      <c r="E9" s="17"/>
+      <c r="F9" s="17"/>
+    </row>
+    <row r="10" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A10" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="B10" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="C10" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="D10" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="E10" s="18" t="s">
+        <v>10</v>
+      </c>
+      <c r="F10" s="19"/>
+    </row>
+    <row r="11" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A11" s="11">
+        <v>1</v>
+      </c>
+      <c r="B11" s="11" t="s">
+        <v>75</v>
+      </c>
+      <c r="C11" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="D11" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="E11" s="14" t="s">
+        <v>59</v>
+      </c>
+      <c r="F11" s="15"/>
+    </row>
+    <row r="12" spans="1:6" ht="62.4" x14ac:dyDescent="0.3">
+      <c r="A12" s="11">
+        <v>2</v>
+      </c>
+      <c r="B12" s="12" t="s">
+        <v>78</v>
+      </c>
+      <c r="C12" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="D12" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="E12" s="14" t="s">
+        <v>59</v>
+      </c>
+      <c r="F12" s="15"/>
+    </row>
+    <row r="13" spans="1:6" ht="62.4" x14ac:dyDescent="0.3">
+      <c r="A13" s="11">
+        <v>3</v>
+      </c>
+      <c r="B13" s="12" t="s">
+        <v>77</v>
+      </c>
+      <c r="C13" t="s">
+        <v>17</v>
+      </c>
+      <c r="D13" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="E13" s="14" t="s">
+        <v>59</v>
+      </c>
+      <c r="F13" s="15"/>
+    </row>
+    <row r="14" spans="1:6" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="A14" s="11">
+        <v>4</v>
+      </c>
+      <c r="B14" s="12" t="s">
+        <v>67</v>
+      </c>
+      <c r="C14" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="D14" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="E14" s="14" t="s">
+        <v>59</v>
+      </c>
+      <c r="F14" s="15"/>
+    </row>
+  </sheetData>
+  <mergeCells count="9">
+    <mergeCell ref="E12:F12"/>
+    <mergeCell ref="E13:F13"/>
+    <mergeCell ref="E14:F14"/>
+    <mergeCell ref="A1:F1"/>
+    <mergeCell ref="A2:F2"/>
+    <mergeCell ref="A8:F8"/>
+    <mergeCell ref="A9:F9"/>
+    <mergeCell ref="E10:F10"/>
+    <mergeCell ref="E11:F11"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D86AF8A8-0F9D-4BAF-A631-2C03BA653DB8}">
+  <dimension ref="A1:F14"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:F14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A1" s="20" t="s">
+        <v>15</v>
+      </c>
+      <c r="B1" s="21"/>
+      <c r="C1" s="21"/>
+      <c r="D1" s="21"/>
+      <c r="E1" s="21"/>
+      <c r="F1" s="21"/>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A2" s="20" t="s">
+        <v>16</v>
+      </c>
+      <c r="B2" s="21"/>
+      <c r="C2" s="21"/>
+      <c r="D2" s="21"/>
+      <c r="E2" s="21"/>
+      <c r="F2" s="21"/>
+    </row>
+    <row r="3" spans="1:6" ht="26.4" x14ac:dyDescent="0.3">
+      <c r="A3" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="C3" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="D3" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="E3" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="F3" s="8" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="39.6" x14ac:dyDescent="0.3">
+      <c r="A4" s="9">
+        <v>1</v>
+      </c>
+      <c r="B4" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="C4" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="D4" s="9"/>
+      <c r="E4" s="9"/>
+      <c r="F4" s="9" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="26.4" x14ac:dyDescent="0.3">
+      <c r="A5" s="9">
+        <v>2</v>
+      </c>
+      <c r="B5" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="C5" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="D5" s="9" t="s">
+        <v>71</v>
+      </c>
+      <c r="E5" s="9"/>
+      <c r="F5" s="9" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="26.4" x14ac:dyDescent="0.3">
+      <c r="A6" s="9">
+        <v>3</v>
+      </c>
+      <c r="B6" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="C6" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="D6" s="9"/>
+      <c r="E6" s="9"/>
+      <c r="F6" s="9" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="39.6" x14ac:dyDescent="0.3">
+      <c r="A7" s="9">
+        <v>4</v>
+      </c>
+      <c r="B7" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="C7" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="D7" s="9"/>
+      <c r="E7" s="9"/>
+      <c r="F7" s="9" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A8" s="24"/>
+      <c r="B8" s="24"/>
+      <c r="C8" s="24"/>
+      <c r="D8" s="24"/>
+      <c r="E8" s="24"/>
+      <c r="F8" s="24"/>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A9" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="B9" s="17"/>
+      <c r="C9" s="17"/>
+      <c r="D9" s="17"/>
+      <c r="E9" s="17"/>
+      <c r="F9" s="17"/>
+    </row>
+    <row r="10" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A10" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="B10" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="C10" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="D10" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="E10" s="18" t="s">
+        <v>10</v>
+      </c>
+      <c r="F10" s="19"/>
+    </row>
+    <row r="11" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A11" s="11">
+        <v>1</v>
+      </c>
+      <c r="B11" s="11" t="s">
+        <v>79</v>
+      </c>
+      <c r="C11" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="D11" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="E11" s="14" t="s">
+        <v>59</v>
+      </c>
+      <c r="F11" s="15"/>
+    </row>
+    <row r="12" spans="1:6" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="A12" s="11">
+        <v>2</v>
+      </c>
+      <c r="B12" s="12" t="s">
+        <v>80</v>
+      </c>
+      <c r="C12" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="D12" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="E12" s="14" t="s">
+        <v>59</v>
+      </c>
+      <c r="F12" s="15"/>
+    </row>
+    <row r="13" spans="1:6" ht="62.4" x14ac:dyDescent="0.3">
+      <c r="A13" s="11">
+        <v>3</v>
+      </c>
+      <c r="B13" s="12" t="s">
+        <v>77</v>
+      </c>
+      <c r="C13" t="s">
+        <v>17</v>
+      </c>
+      <c r="D13" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="E13" s="14" t="s">
+        <v>59</v>
+      </c>
+      <c r="F13" s="15"/>
+    </row>
+    <row r="14" spans="1:6" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="A14" s="11">
+        <v>4</v>
+      </c>
+      <c r="B14" s="12" t="s">
+        <v>67</v>
+      </c>
+      <c r="C14" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="D14" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="E14" s="14" t="s">
+        <v>59</v>
+      </c>
+      <c r="F14" s="15"/>
+    </row>
+  </sheetData>
+  <mergeCells count="9">
+    <mergeCell ref="E12:F12"/>
+    <mergeCell ref="E13:F13"/>
+    <mergeCell ref="E14:F14"/>
+    <mergeCell ref="A1:F1"/>
+    <mergeCell ref="A2:F2"/>
+    <mergeCell ref="A8:F8"/>
+    <mergeCell ref="A9:F9"/>
+    <mergeCell ref="E10:F10"/>
+    <mergeCell ref="E11:F11"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8510129D-7A1E-4434-82D5-31C356A51BAA}">
+  <dimension ref="A1:F14"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:F14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A1" s="20" t="s">
+        <v>15</v>
+      </c>
+      <c r="B1" s="21"/>
+      <c r="C1" s="21"/>
+      <c r="D1" s="21"/>
+      <c r="E1" s="21"/>
+      <c r="F1" s="21"/>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A2" s="20" t="s">
+        <v>16</v>
+      </c>
+      <c r="B2" s="21"/>
+      <c r="C2" s="21"/>
+      <c r="D2" s="21"/>
+      <c r="E2" s="21"/>
+      <c r="F2" s="21"/>
+    </row>
+    <row r="3" spans="1:6" ht="26.4" x14ac:dyDescent="0.3">
+      <c r="A3" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="C3" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="D3" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="E3" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="F3" s="8" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="39.6" x14ac:dyDescent="0.3">
+      <c r="A4" s="9">
+        <v>1</v>
+      </c>
+      <c r="B4" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="C4" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="D4" s="9"/>
+      <c r="E4" s="9"/>
+      <c r="F4" s="9" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="26.4" x14ac:dyDescent="0.3">
+      <c r="A5" s="9">
+        <v>2</v>
+      </c>
+      <c r="B5" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="C5" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="D5" s="9" t="s">
+        <v>71</v>
+      </c>
+      <c r="E5" s="9"/>
+      <c r="F5" s="9" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="26.4" x14ac:dyDescent="0.3">
+      <c r="A6" s="9">
+        <v>3</v>
+      </c>
+      <c r="B6" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="C6" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="D6" s="9"/>
+      <c r="E6" s="9"/>
+      <c r="F6" s="9" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="39.6" x14ac:dyDescent="0.3">
+      <c r="A7" s="9">
+        <v>4</v>
+      </c>
+      <c r="B7" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="C7" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="D7" s="9"/>
+      <c r="E7" s="9"/>
+      <c r="F7" s="9" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A8" s="24"/>
+      <c r="B8" s="24"/>
+      <c r="C8" s="24"/>
+      <c r="D8" s="24"/>
+      <c r="E8" s="24"/>
+      <c r="F8" s="24"/>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A9" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="B9" s="17"/>
+      <c r="C9" s="17"/>
+      <c r="D9" s="17"/>
+      <c r="E9" s="17"/>
+      <c r="F9" s="17"/>
+    </row>
+    <row r="10" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A10" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="B10" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="C10" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="D10" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="E10" s="18" t="s">
+        <v>10</v>
+      </c>
+      <c r="F10" s="19"/>
+    </row>
+    <row r="11" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A11" s="11">
+        <v>1</v>
+      </c>
+      <c r="B11" s="11" t="s">
+        <v>81</v>
+      </c>
+      <c r="C11" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="D11" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="E11" s="14" t="s">
+        <v>59</v>
+      </c>
+      <c r="F11" s="15"/>
+    </row>
+    <row r="12" spans="1:6" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="A12" s="11">
+        <v>2</v>
+      </c>
+      <c r="B12" s="12" t="s">
+        <v>80</v>
+      </c>
+      <c r="C12" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="D12" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="E12" s="14" t="s">
+        <v>59</v>
+      </c>
+      <c r="F12" s="15"/>
+    </row>
+    <row r="13" spans="1:6" ht="62.4" x14ac:dyDescent="0.3">
+      <c r="A13" s="11">
+        <v>3</v>
+      </c>
+      <c r="B13" s="12" t="s">
+        <v>77</v>
+      </c>
+      <c r="C13" t="s">
+        <v>17</v>
+      </c>
+      <c r="D13" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="E13" s="14" t="s">
+        <v>59</v>
+      </c>
+      <c r="F13" s="15"/>
+    </row>
+    <row r="14" spans="1:6" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="A14" s="11">
+        <v>4</v>
+      </c>
+      <c r="B14" s="12" t="s">
+        <v>67</v>
+      </c>
+      <c r="C14" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="D14" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="E14" s="14" t="s">
+        <v>59</v>
+      </c>
+      <c r="F14" s="15"/>
+    </row>
+  </sheetData>
+  <mergeCells count="9">
+    <mergeCell ref="E12:F12"/>
+    <mergeCell ref="E13:F13"/>
+    <mergeCell ref="E14:F14"/>
+    <mergeCell ref="A1:F1"/>
+    <mergeCell ref="A2:F2"/>
+    <mergeCell ref="A8:F8"/>
+    <mergeCell ref="A9:F9"/>
+    <mergeCell ref="E10:F10"/>
+    <mergeCell ref="E11:F11"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{395FA9F6-3B68-4DA3-83BE-28B2AD82CE7C}">
+  <dimension ref="A1:F14"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:F14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A1" s="20" t="s">
+        <v>15</v>
+      </c>
+      <c r="B1" s="21"/>
+      <c r="C1" s="21"/>
+      <c r="D1" s="21"/>
+      <c r="E1" s="21"/>
+      <c r="F1" s="21"/>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A2" s="20" t="s">
+        <v>16</v>
+      </c>
+      <c r="B2" s="21"/>
+      <c r="C2" s="21"/>
+      <c r="D2" s="21"/>
+      <c r="E2" s="21"/>
+      <c r="F2" s="21"/>
+    </row>
+    <row r="3" spans="1:6" ht="26.4" x14ac:dyDescent="0.3">
+      <c r="A3" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="C3" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="D3" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="E3" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="F3" s="8" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="39.6" x14ac:dyDescent="0.3">
+      <c r="A4" s="9">
+        <v>1</v>
+      </c>
+      <c r="B4" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="C4" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="D4" s="9"/>
+      <c r="E4" s="9"/>
+      <c r="F4" s="9" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="26.4" x14ac:dyDescent="0.3">
+      <c r="A5" s="9">
+        <v>2</v>
+      </c>
+      <c r="B5" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="C5" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="D5" s="9" t="s">
+        <v>71</v>
+      </c>
+      <c r="E5" s="9"/>
+      <c r="F5" s="9" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="26.4" x14ac:dyDescent="0.3">
+      <c r="A6" s="9">
+        <v>3</v>
+      </c>
+      <c r="B6" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="C6" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="D6" s="9"/>
+      <c r="E6" s="9"/>
+      <c r="F6" s="9" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="39.6" x14ac:dyDescent="0.3">
+      <c r="A7" s="9">
+        <v>4</v>
+      </c>
+      <c r="B7" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="C7" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="D7" s="9"/>
+      <c r="E7" s="9"/>
+      <c r="F7" s="9" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A8" s="24"/>
+      <c r="B8" s="24"/>
+      <c r="C8" s="24"/>
+      <c r="D8" s="24"/>
+      <c r="E8" s="24"/>
+      <c r="F8" s="24"/>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A9" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="B9" s="17"/>
+      <c r="C9" s="17"/>
+      <c r="D9" s="17"/>
+      <c r="E9" s="17"/>
+      <c r="F9" s="17"/>
+    </row>
+    <row r="10" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A10" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="B10" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="C10" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="D10" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="E10" s="18" t="s">
+        <v>10</v>
+      </c>
+      <c r="F10" s="19"/>
+    </row>
+    <row r="11" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A11" s="11">
+        <v>1</v>
+      </c>
+      <c r="B11" s="11" t="s">
+        <v>82</v>
+      </c>
+      <c r="C11" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="D11" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="E11" s="14" t="s">
+        <v>59</v>
+      </c>
+      <c r="F11" s="15"/>
+    </row>
+    <row r="12" spans="1:6" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="A12" s="11">
+        <v>2</v>
+      </c>
+      <c r="B12" s="12" t="s">
+        <v>80</v>
+      </c>
+      <c r="C12" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="D12" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="E12" s="14" t="s">
+        <v>59</v>
+      </c>
+      <c r="F12" s="15"/>
+    </row>
+    <row r="13" spans="1:6" ht="62.4" x14ac:dyDescent="0.3">
+      <c r="A13" s="11">
+        <v>3</v>
+      </c>
+      <c r="B13" s="12" t="s">
+        <v>77</v>
+      </c>
+      <c r="C13" t="s">
+        <v>17</v>
+      </c>
+      <c r="D13" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="E13" s="14" t="s">
+        <v>59</v>
+      </c>
+      <c r="F13" s="15"/>
+    </row>
+    <row r="14" spans="1:6" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="A14" s="11">
+        <v>4</v>
+      </c>
+      <c r="B14" s="12" t="s">
+        <v>67</v>
+      </c>
+      <c r="C14" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="D14" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="E14" s="14" t="s">
+        <v>59</v>
+      </c>
+      <c r="F14" s="15"/>
+    </row>
+  </sheetData>
+  <mergeCells count="9">
+    <mergeCell ref="E12:F12"/>
+    <mergeCell ref="E13:F13"/>
+    <mergeCell ref="E14:F14"/>
+    <mergeCell ref="A1:F1"/>
+    <mergeCell ref="A2:F2"/>
+    <mergeCell ref="A8:F8"/>
+    <mergeCell ref="A9:F9"/>
+    <mergeCell ref="E10:F10"/>
+    <mergeCell ref="E11:F11"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{59803BBD-0138-4A96-83A7-6E6910A4E365}">
+  <dimension ref="A1:F14"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J12" sqref="J12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A1" s="20" t="s">
+        <v>15</v>
+      </c>
+      <c r="B1" s="21"/>
+      <c r="C1" s="21"/>
+      <c r="D1" s="21"/>
+      <c r="E1" s="21"/>
+      <c r="F1" s="21"/>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A2" s="20" t="s">
+        <v>16</v>
+      </c>
+      <c r="B2" s="21"/>
+      <c r="C2" s="21"/>
+      <c r="D2" s="21"/>
+      <c r="E2" s="21"/>
+      <c r="F2" s="21"/>
+    </row>
+    <row r="3" spans="1:6" ht="26.4" x14ac:dyDescent="0.3">
+      <c r="A3" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="C3" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="D3" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="E3" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="F3" s="8" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="39.6" x14ac:dyDescent="0.3">
+      <c r="A4" s="9">
+        <v>1</v>
+      </c>
+      <c r="B4" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="C4" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="D4" s="9"/>
+      <c r="E4" s="9"/>
+      <c r="F4" s="9" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="26.4" x14ac:dyDescent="0.3">
+      <c r="A5" s="9">
+        <v>2</v>
+      </c>
+      <c r="B5" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="C5" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="D5" s="9" t="s">
+        <v>71</v>
+      </c>
+      <c r="E5" s="9"/>
+      <c r="F5" s="9" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="26.4" x14ac:dyDescent="0.3">
+      <c r="A6" s="9">
+        <v>3</v>
+      </c>
+      <c r="B6" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="C6" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="D6" s="9"/>
+      <c r="E6" s="9"/>
+      <c r="F6" s="9" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="39.6" x14ac:dyDescent="0.3">
+      <c r="A7" s="9">
+        <v>4</v>
+      </c>
+      <c r="B7" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="C7" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="D7" s="9"/>
+      <c r="E7" s="9"/>
+      <c r="F7" s="9" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A8" s="24"/>
+      <c r="B8" s="24"/>
+      <c r="C8" s="24"/>
+      <c r="D8" s="24"/>
+      <c r="E8" s="24"/>
+      <c r="F8" s="24"/>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A9" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="B9" s="17"/>
+      <c r="C9" s="17"/>
+      <c r="D9" s="17"/>
+      <c r="E9" s="17"/>
+      <c r="F9" s="17"/>
+    </row>
+    <row r="10" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A10" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="B10" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="C10" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="D10" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="E10" s="18" t="s">
+        <v>10</v>
+      </c>
+      <c r="F10" s="19"/>
+    </row>
+    <row r="11" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A11" s="11">
+        <v>1</v>
+      </c>
+      <c r="B11" s="11" t="s">
+        <v>83</v>
+      </c>
+      <c r="C11" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="D11" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="E11" s="14" t="s">
+        <v>59</v>
+      </c>
+      <c r="F11" s="15"/>
+    </row>
+    <row r="12" spans="1:6" ht="78" x14ac:dyDescent="0.3">
+      <c r="A12" s="11">
+        <v>2</v>
+      </c>
+      <c r="B12" s="12" t="s">
+        <v>84</v>
+      </c>
+      <c r="C12" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="D12" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="E12" s="14" t="s">
+        <v>59</v>
+      </c>
+      <c r="F12" s="15"/>
+    </row>
+    <row r="13" spans="1:6" ht="78" x14ac:dyDescent="0.3">
+      <c r="A13" s="11">
+        <v>3</v>
+      </c>
+      <c r="B13" s="12" t="s">
+        <v>85</v>
+      </c>
+      <c r="C13" t="s">
+        <v>17</v>
+      </c>
+      <c r="D13" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="E13" s="14" t="s">
+        <v>59</v>
+      </c>
+      <c r="F13" s="15"/>
+    </row>
+    <row r="14" spans="1:6" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="A14" s="11">
+        <v>4</v>
+      </c>
+      <c r="B14" s="12" t="s">
+        <v>67</v>
+      </c>
+      <c r="C14" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="D14" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="E14" s="14" t="s">
+        <v>59</v>
+      </c>
+      <c r="F14" s="15"/>
+    </row>
+  </sheetData>
+  <mergeCells count="9">
+    <mergeCell ref="E12:F12"/>
+    <mergeCell ref="E13:F13"/>
+    <mergeCell ref="E14:F14"/>
+    <mergeCell ref="A1:F1"/>
+    <mergeCell ref="A2:F2"/>
+    <mergeCell ref="A8:F8"/>
+    <mergeCell ref="A9:F9"/>
+    <mergeCell ref="E10:F10"/>
+    <mergeCell ref="E11:F11"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -28557,64 +30050,64 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="20.399999999999999" x14ac:dyDescent="0.3">
-      <c r="A1" s="25" t="s">
+      <c r="A1" s="26" t="s">
         <v>36</v>
       </c>
-      <c r="B1" s="25"/>
-      <c r="C1" s="25"/>
-      <c r="D1" s="25"/>
-      <c r="E1" s="25"/>
-      <c r="F1" s="25"/>
+      <c r="B1" s="26"/>
+      <c r="C1" s="26"/>
+      <c r="D1" s="26"/>
+      <c r="E1" s="26"/>
+      <c r="F1" s="26"/>
     </row>
     <row r="2" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A2" s="26" t="s">
+      <c r="A2" s="27" t="s">
         <v>49</v>
       </c>
-      <c r="B2" s="26"/>
-      <c r="C2" s="26"/>
-      <c r="D2" s="26"/>
-      <c r="E2" s="26"/>
-      <c r="F2" s="26"/>
+      <c r="B2" s="27"/>
+      <c r="C2" s="27"/>
+      <c r="D2" s="27"/>
+      <c r="E2" s="27"/>
+      <c r="F2" s="27"/>
     </row>
     <row r="3" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A3" s="26" t="s">
+      <c r="A3" s="27" t="s">
         <v>37</v>
       </c>
-      <c r="B3" s="26"/>
-      <c r="C3" s="26"/>
-      <c r="D3" s="26"/>
-      <c r="E3" s="26"/>
-      <c r="F3" s="26"/>
+      <c r="B3" s="27"/>
+      <c r="C3" s="27"/>
+      <c r="D3" s="27"/>
+      <c r="E3" s="27"/>
+      <c r="F3" s="27"/>
     </row>
     <row r="4" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A4" s="26" t="s">
+      <c r="A4" s="27" t="s">
         <v>51</v>
       </c>
-      <c r="B4" s="26"/>
-      <c r="C4" s="26"/>
-      <c r="D4" s="26"/>
-      <c r="E4" s="26"/>
-      <c r="F4" s="26"/>
+      <c r="B4" s="27"/>
+      <c r="C4" s="27"/>
+      <c r="D4" s="27"/>
+      <c r="E4" s="27"/>
+      <c r="F4" s="27"/>
     </row>
     <row r="5" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A5" s="26" t="s">
+      <c r="A5" s="27" t="s">
         <v>52</v>
       </c>
-      <c r="B5" s="26"/>
-      <c r="C5" s="26"/>
-      <c r="D5" s="26"/>
-      <c r="E5" s="26"/>
-      <c r="F5" s="26"/>
+      <c r="B5" s="27"/>
+      <c r="C5" s="27"/>
+      <c r="D5" s="27"/>
+      <c r="E5" s="27"/>
+      <c r="F5" s="27"/>
     </row>
     <row r="6" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A6" s="24" t="s">
+      <c r="A6" s="25" t="s">
         <v>38</v>
       </c>
-      <c r="B6" s="24"/>
-      <c r="C6" s="24"/>
-      <c r="D6" s="24"/>
-      <c r="E6" s="24"/>
-      <c r="F6" s="24"/>
+      <c r="B6" s="25"/>
+      <c r="C6" s="25"/>
+      <c r="D6" s="25"/>
+      <c r="E6" s="25"/>
+      <c r="F6" s="25"/>
     </row>
     <row r="7" spans="1:6" ht="26.4" x14ac:dyDescent="0.3">
       <c r="A7" s="8" t="s">
@@ -28701,22 +30194,22 @@
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A12" s="27"/>
-      <c r="B12" s="27"/>
-      <c r="C12" s="27"/>
-      <c r="D12" s="27"/>
-      <c r="E12" s="27"/>
-      <c r="F12" s="27"/>
+      <c r="A12" s="24"/>
+      <c r="B12" s="24"/>
+      <c r="C12" s="24"/>
+      <c r="D12" s="24"/>
+      <c r="E12" s="24"/>
+      <c r="F12" s="24"/>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A13" s="20" t="s">
+      <c r="A13" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="B13" s="21"/>
-      <c r="C13" s="21"/>
-      <c r="D13" s="21"/>
-      <c r="E13" s="21"/>
-      <c r="F13" s="21"/>
+      <c r="B13" s="17"/>
+      <c r="C13" s="17"/>
+      <c r="D13" s="17"/>
+      <c r="E13" s="17"/>
+      <c r="F13" s="17"/>
     </row>
     <row r="14" spans="1:6" ht="31.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="10" t="s">
@@ -28731,10 +30224,10 @@
       <c r="D14" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="E14" s="22" t="s">
+      <c r="E14" s="18" t="s">
         <v>10</v>
       </c>
-      <c r="F14" s="23"/>
+      <c r="F14" s="19"/>
     </row>
     <row r="15" spans="1:6" ht="46.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="11">
@@ -28749,10 +30242,10 @@
       <c r="D15" s="11" t="s">
         <v>40</v>
       </c>
-      <c r="E15" s="18" t="s">
+      <c r="E15" s="14" t="s">
         <v>41</v>
       </c>
-      <c r="F15" s="19"/>
+      <c r="F15" s="15"/>
     </row>
     <row r="16" spans="1:6" ht="29.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="11">
@@ -28767,10 +30260,10 @@
       <c r="D16" s="11" t="s">
         <v>40</v>
       </c>
-      <c r="E16" s="18" t="s">
+      <c r="E16" s="14" t="s">
         <v>41</v>
       </c>
-      <c r="F16" s="19"/>
+      <c r="F16" s="15"/>
     </row>
     <row r="17" spans="1:6" ht="36" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="11">
@@ -28785,10 +30278,10 @@
       <c r="D17" s="11" t="s">
         <v>40</v>
       </c>
-      <c r="E17" s="18" t="s">
+      <c r="E17" s="14" t="s">
         <v>41</v>
       </c>
-      <c r="F17" s="19"/>
+      <c r="F17" s="15"/>
     </row>
     <row r="18" spans="1:6" ht="40.200000000000003" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="11">
@@ -28803,10 +30296,10 @@
       <c r="D18" s="11" t="s">
         <v>45</v>
       </c>
-      <c r="E18" s="18" t="s">
+      <c r="E18" s="14" t="s">
         <v>46</v>
       </c>
-      <c r="F18" s="19"/>
+      <c r="F18" s="15"/>
     </row>
     <row r="19" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A19" s="12">
@@ -28821,13 +30314,19 @@
       <c r="D19" s="12" t="s">
         <v>45</v>
       </c>
-      <c r="E19" s="18" t="s">
+      <c r="E19" s="14" t="s">
         <v>48</v>
       </c>
-      <c r="F19" s="19"/>
+      <c r="F19" s="15"/>
     </row>
   </sheetData>
   <mergeCells count="14">
+    <mergeCell ref="A6:F6"/>
+    <mergeCell ref="A1:F1"/>
+    <mergeCell ref="A2:F2"/>
+    <mergeCell ref="A3:F3"/>
+    <mergeCell ref="A4:F4"/>
+    <mergeCell ref="A5:F5"/>
     <mergeCell ref="E18:F18"/>
     <mergeCell ref="E19:F19"/>
     <mergeCell ref="A12:F12"/>
@@ -28836,12 +30335,6 @@
     <mergeCell ref="E15:F15"/>
     <mergeCell ref="E16:F16"/>
     <mergeCell ref="E17:F17"/>
-    <mergeCell ref="A6:F6"/>
-    <mergeCell ref="A1:F1"/>
-    <mergeCell ref="A2:F2"/>
-    <mergeCell ref="A3:F3"/>
-    <mergeCell ref="A4:F4"/>
-    <mergeCell ref="A5:F5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -28866,64 +30359,64 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="18" x14ac:dyDescent="0.35">
-      <c r="A1" s="16" t="s">
+      <c r="A1" s="22" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="17"/>
-      <c r="C1" s="17"/>
-      <c r="D1" s="17"/>
-      <c r="E1" s="17"/>
-      <c r="F1" s="17"/>
+      <c r="B1" s="23"/>
+      <c r="C1" s="23"/>
+      <c r="D1" s="23"/>
+      <c r="E1" s="23"/>
+      <c r="F1" s="23"/>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A2" s="14" t="s">
+      <c r="A2" s="20" t="s">
         <v>62</v>
       </c>
-      <c r="B2" s="15"/>
-      <c r="C2" s="15"/>
-      <c r="D2" s="15"/>
-      <c r="E2" s="15"/>
-      <c r="F2" s="15"/>
+      <c r="B2" s="21"/>
+      <c r="C2" s="21"/>
+      <c r="D2" s="21"/>
+      <c r="E2" s="21"/>
+      <c r="F2" s="21"/>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A3" s="14" t="s">
+      <c r="A3" s="20" t="s">
         <v>50</v>
       </c>
-      <c r="B3" s="15"/>
-      <c r="C3" s="15"/>
-      <c r="D3" s="15"/>
-      <c r="E3" s="15"/>
-      <c r="F3" s="15"/>
+      <c r="B3" s="21"/>
+      <c r="C3" s="21"/>
+      <c r="D3" s="21"/>
+      <c r="E3" s="21"/>
+      <c r="F3" s="21"/>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A4" s="14" t="s">
+      <c r="A4" s="20" t="s">
         <v>14</v>
       </c>
-      <c r="B4" s="15"/>
-      <c r="C4" s="15"/>
-      <c r="D4" s="15"/>
-      <c r="E4" s="15"/>
-      <c r="F4" s="15"/>
+      <c r="B4" s="21"/>
+      <c r="C4" s="21"/>
+      <c r="D4" s="21"/>
+      <c r="E4" s="21"/>
+      <c r="F4" s="21"/>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A5" s="14" t="s">
+      <c r="A5" s="20" t="s">
         <v>15</v>
       </c>
-      <c r="B5" s="15"/>
-      <c r="C5" s="15"/>
-      <c r="D5" s="15"/>
-      <c r="E5" s="15"/>
-      <c r="F5" s="15"/>
+      <c r="B5" s="21"/>
+      <c r="C5" s="21"/>
+      <c r="D5" s="21"/>
+      <c r="E5" s="21"/>
+      <c r="F5" s="21"/>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A6" s="14" t="s">
+      <c r="A6" s="20" t="s">
         <v>16</v>
       </c>
-      <c r="B6" s="15"/>
-      <c r="C6" s="15"/>
-      <c r="D6" s="15"/>
-      <c r="E6" s="15"/>
-      <c r="F6" s="15"/>
+      <c r="B6" s="21"/>
+      <c r="C6" s="21"/>
+      <c r="D6" s="21"/>
+      <c r="E6" s="21"/>
+      <c r="F6" s="21"/>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" s="8" t="s">
@@ -29010,14 +30503,14 @@
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A13" s="20" t="s">
+      <c r="A13" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="B13" s="21"/>
-      <c r="C13" s="21"/>
-      <c r="D13" s="21"/>
-      <c r="E13" s="21"/>
-      <c r="F13" s="21"/>
+      <c r="B13" s="17"/>
+      <c r="C13" s="17"/>
+      <c r="D13" s="17"/>
+      <c r="E13" s="17"/>
+      <c r="F13" s="17"/>
     </row>
     <row r="14" spans="1:6" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="10" t="s">
@@ -29032,10 +30525,10 @@
       <c r="D14" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="E14" s="22" t="s">
+      <c r="E14" s="18" t="s">
         <v>10</v>
       </c>
-      <c r="F14" s="23"/>
+      <c r="F14" s="19"/>
     </row>
     <row r="15" spans="1:6" ht="31.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="11">
@@ -29050,10 +30543,10 @@
       <c r="D15" s="11" t="s">
         <v>40</v>
       </c>
-      <c r="E15" s="18" t="s">
+      <c r="E15" s="14" t="s">
         <v>41</v>
       </c>
-      <c r="F15" s="19"/>
+      <c r="F15" s="15"/>
     </row>
     <row r="16" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A16" s="11">
@@ -29068,10 +30561,10 @@
       <c r="D16" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="E16" s="18" t="s">
+      <c r="E16" s="14" t="s">
         <v>41</v>
       </c>
-      <c r="F16" s="19"/>
+      <c r="F16" s="15"/>
     </row>
     <row r="17" spans="1:6" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A17" s="11">
@@ -29086,10 +30579,10 @@
       <c r="D17" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="E17" s="18" t="s">
+      <c r="E17" s="14" t="s">
         <v>41</v>
       </c>
-      <c r="F17" s="19"/>
+      <c r="F17" s="15"/>
     </row>
     <row r="18" spans="1:6" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A18" s="11">
@@ -29104,10 +30597,10 @@
       <c r="D18" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="E18" s="18" t="s">
+      <c r="E18" s="14" t="s">
         <v>41</v>
       </c>
-      <c r="F18" s="19"/>
+      <c r="F18" s="15"/>
     </row>
     <row r="19" spans="1:6" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A19" s="11">
@@ -29122,10 +30615,10 @@
       <c r="D19" s="11" t="s">
         <v>45</v>
       </c>
-      <c r="E19" s="18" t="s">
+      <c r="E19" s="14" t="s">
         <v>46</v>
       </c>
-      <c r="F19" s="19"/>
+      <c r="F19" s="15"/>
     </row>
     <row r="20" spans="1:6" ht="31.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="12">
@@ -29140,13 +30633,19 @@
       <c r="D20" s="12" t="s">
         <v>45</v>
       </c>
-      <c r="E20" s="18" t="s">
+      <c r="E20" s="14" t="s">
         <v>48</v>
       </c>
-      <c r="F20" s="19"/>
+      <c r="F20" s="15"/>
     </row>
   </sheetData>
   <mergeCells count="14">
+    <mergeCell ref="A6:F6"/>
+    <mergeCell ref="A1:F1"/>
+    <mergeCell ref="A2:F2"/>
+    <mergeCell ref="A3:F3"/>
+    <mergeCell ref="A4:F4"/>
+    <mergeCell ref="A5:F5"/>
     <mergeCell ref="E19:F19"/>
     <mergeCell ref="E20:F20"/>
     <mergeCell ref="A13:F13"/>
@@ -29155,12 +30654,6 @@
     <mergeCell ref="E16:F16"/>
     <mergeCell ref="E17:F17"/>
     <mergeCell ref="E18:F18"/>
-    <mergeCell ref="A6:F6"/>
-    <mergeCell ref="A1:F1"/>
-    <mergeCell ref="A2:F2"/>
-    <mergeCell ref="A3:F3"/>
-    <mergeCell ref="A4:F4"/>
-    <mergeCell ref="A5:F5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -29185,64 +30678,64 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="18" x14ac:dyDescent="0.35">
-      <c r="A1" s="16" t="s">
+      <c r="A1" s="22" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="17"/>
-      <c r="C1" s="17"/>
-      <c r="D1" s="17"/>
-      <c r="E1" s="17"/>
-      <c r="F1" s="17"/>
+      <c r="B1" s="23"/>
+      <c r="C1" s="23"/>
+      <c r="D1" s="23"/>
+      <c r="E1" s="23"/>
+      <c r="F1" s="23"/>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A2" s="14" t="s">
+      <c r="A2" s="20" t="s">
         <v>62</v>
       </c>
-      <c r="B2" s="15"/>
-      <c r="C2" s="15"/>
-      <c r="D2" s="15"/>
-      <c r="E2" s="15"/>
-      <c r="F2" s="15"/>
+      <c r="B2" s="21"/>
+      <c r="C2" s="21"/>
+      <c r="D2" s="21"/>
+      <c r="E2" s="21"/>
+      <c r="F2" s="21"/>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A3" s="14" t="s">
+      <c r="A3" s="20" t="s">
         <v>61</v>
       </c>
-      <c r="B3" s="15"/>
-      <c r="C3" s="15"/>
-      <c r="D3" s="15"/>
-      <c r="E3" s="15"/>
-      <c r="F3" s="15"/>
+      <c r="B3" s="21"/>
+      <c r="C3" s="21"/>
+      <c r="D3" s="21"/>
+      <c r="E3" s="21"/>
+      <c r="F3" s="21"/>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A4" s="14" t="s">
+      <c r="A4" s="20" t="s">
         <v>14</v>
       </c>
-      <c r="B4" s="15"/>
-      <c r="C4" s="15"/>
-      <c r="D4" s="15"/>
-      <c r="E4" s="15"/>
-      <c r="F4" s="15"/>
+      <c r="B4" s="21"/>
+      <c r="C4" s="21"/>
+      <c r="D4" s="21"/>
+      <c r="E4" s="21"/>
+      <c r="F4" s="21"/>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A5" s="14" t="s">
+      <c r="A5" s="20" t="s">
         <v>15</v>
       </c>
-      <c r="B5" s="15"/>
-      <c r="C5" s="15"/>
-      <c r="D5" s="15"/>
-      <c r="E5" s="15"/>
-      <c r="F5" s="15"/>
+      <c r="B5" s="21"/>
+      <c r="C5" s="21"/>
+      <c r="D5" s="21"/>
+      <c r="E5" s="21"/>
+      <c r="F5" s="21"/>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A6" s="14" t="s">
+      <c r="A6" s="20" t="s">
         <v>16</v>
       </c>
-      <c r="B6" s="15"/>
-      <c r="C6" s="15"/>
-      <c r="D6" s="15"/>
-      <c r="E6" s="15"/>
-      <c r="F6" s="15"/>
+      <c r="B6" s="21"/>
+      <c r="C6" s="21"/>
+      <c r="D6" s="21"/>
+      <c r="E6" s="21"/>
+      <c r="F6" s="21"/>
     </row>
     <row r="7" spans="1:6" ht="46.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="8" t="s">
@@ -29329,22 +30822,22 @@
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A12" s="27"/>
-      <c r="B12" s="27"/>
-      <c r="C12" s="27"/>
-      <c r="D12" s="27"/>
-      <c r="E12" s="27"/>
-      <c r="F12" s="27"/>
+      <c r="A12" s="24"/>
+      <c r="B12" s="24"/>
+      <c r="C12" s="24"/>
+      <c r="D12" s="24"/>
+      <c r="E12" s="24"/>
+      <c r="F12" s="24"/>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A13" s="20" t="s">
+      <c r="A13" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="B13" s="21"/>
-      <c r="C13" s="21"/>
-      <c r="D13" s="21"/>
-      <c r="E13" s="21"/>
-      <c r="F13" s="21"/>
+      <c r="B13" s="17"/>
+      <c r="C13" s="17"/>
+      <c r="D13" s="17"/>
+      <c r="E13" s="17"/>
+      <c r="F13" s="17"/>
     </row>
     <row r="14" spans="1:6" ht="31.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="10" t="s">
@@ -29359,10 +30852,10 @@
       <c r="D14" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="E14" s="22" t="s">
+      <c r="E14" s="18" t="s">
         <v>10</v>
       </c>
-      <c r="F14" s="23"/>
+      <c r="F14" s="19"/>
     </row>
     <row r="15" spans="1:6" ht="46.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="11">
@@ -29377,10 +30870,10 @@
       <c r="D15" s="11" t="s">
         <v>40</v>
       </c>
-      <c r="E15" s="18" t="s">
+      <c r="E15" s="14" t="s">
         <v>59</v>
       </c>
-      <c r="F15" s="19"/>
+      <c r="F15" s="15"/>
     </row>
     <row r="16" spans="1:6" ht="46.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="11">
@@ -29395,10 +30888,10 @@
       <c r="D16" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="E16" s="18" t="s">
+      <c r="E16" s="14" t="s">
         <v>59</v>
       </c>
-      <c r="F16" s="19"/>
+      <c r="F16" s="15"/>
     </row>
     <row r="17" spans="1:6" ht="46.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="11">
@@ -29413,10 +30906,10 @@
       <c r="D17" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="E17" s="18" t="s">
+      <c r="E17" s="14" t="s">
         <v>59</v>
       </c>
-      <c r="F17" s="19"/>
+      <c r="F17" s="15"/>
     </row>
     <row r="18" spans="1:6" ht="46.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="11">
@@ -29431,19 +30924,13 @@
       <c r="D18" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="E18" s="18" t="s">
+      <c r="E18" s="14" t="s">
         <v>59</v>
       </c>
-      <c r="F18" s="19"/>
+      <c r="F18" s="15"/>
     </row>
   </sheetData>
   <mergeCells count="13">
-    <mergeCell ref="A6:F6"/>
-    <mergeCell ref="A1:F1"/>
-    <mergeCell ref="A2:F2"/>
-    <mergeCell ref="A3:F3"/>
-    <mergeCell ref="A4:F4"/>
-    <mergeCell ref="A5:F5"/>
     <mergeCell ref="E18:F18"/>
     <mergeCell ref="A12:F12"/>
     <mergeCell ref="A13:F13"/>
@@ -29451,6 +30938,12 @@
     <mergeCell ref="E15:F15"/>
     <mergeCell ref="E16:F16"/>
     <mergeCell ref="E17:F17"/>
+    <mergeCell ref="A6:F6"/>
+    <mergeCell ref="A1:F1"/>
+    <mergeCell ref="A2:F2"/>
+    <mergeCell ref="A3:F3"/>
+    <mergeCell ref="A4:F4"/>
+    <mergeCell ref="A5:F5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -29474,64 +30967,64 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="18" x14ac:dyDescent="0.35">
-      <c r="A1" s="16" t="s">
+      <c r="A1" s="22" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="17"/>
-      <c r="C1" s="17"/>
-      <c r="D1" s="17"/>
-      <c r="E1" s="17"/>
-      <c r="F1" s="17"/>
+      <c r="B1" s="23"/>
+      <c r="C1" s="23"/>
+      <c r="D1" s="23"/>
+      <c r="E1" s="23"/>
+      <c r="F1" s="23"/>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A2" s="14" t="s">
+      <c r="A2" s="20" t="s">
         <v>62</v>
       </c>
-      <c r="B2" s="15"/>
-      <c r="C2" s="15"/>
-      <c r="D2" s="15"/>
-      <c r="E2" s="15"/>
-      <c r="F2" s="15"/>
+      <c r="B2" s="21"/>
+      <c r="C2" s="21"/>
+      <c r="D2" s="21"/>
+      <c r="E2" s="21"/>
+      <c r="F2" s="21"/>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A3" s="14" t="s">
+      <c r="A3" s="20" t="s">
         <v>63</v>
       </c>
-      <c r="B3" s="15"/>
-      <c r="C3" s="15"/>
-      <c r="D3" s="15"/>
-      <c r="E3" s="15"/>
-      <c r="F3" s="15"/>
+      <c r="B3" s="21"/>
+      <c r="C3" s="21"/>
+      <c r="D3" s="21"/>
+      <c r="E3" s="21"/>
+      <c r="F3" s="21"/>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A4" s="14" t="s">
+      <c r="A4" s="20" t="s">
         <v>14</v>
       </c>
-      <c r="B4" s="15"/>
-      <c r="C4" s="15"/>
-      <c r="D4" s="15"/>
-      <c r="E4" s="15"/>
-      <c r="F4" s="15"/>
+      <c r="B4" s="21"/>
+      <c r="C4" s="21"/>
+      <c r="D4" s="21"/>
+      <c r="E4" s="21"/>
+      <c r="F4" s="21"/>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A5" s="14" t="s">
+      <c r="A5" s="20" t="s">
         <v>15</v>
       </c>
-      <c r="B5" s="15"/>
-      <c r="C5" s="15"/>
-      <c r="D5" s="15"/>
-      <c r="E5" s="15"/>
-      <c r="F5" s="15"/>
+      <c r="B5" s="21"/>
+      <c r="C5" s="21"/>
+      <c r="D5" s="21"/>
+      <c r="E5" s="21"/>
+      <c r="F5" s="21"/>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A6" s="14" t="s">
+      <c r="A6" s="20" t="s">
         <v>16</v>
       </c>
-      <c r="B6" s="15"/>
-      <c r="C6" s="15"/>
-      <c r="D6" s="15"/>
-      <c r="E6" s="15"/>
-      <c r="F6" s="15"/>
+      <c r="B6" s="21"/>
+      <c r="C6" s="21"/>
+      <c r="D6" s="21"/>
+      <c r="E6" s="21"/>
+      <c r="F6" s="21"/>
     </row>
     <row r="7" spans="1:6" ht="26.4" x14ac:dyDescent="0.3">
       <c r="A7" s="8" t="s">
@@ -29553,7 +31046,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="39.6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" s="9">
         <v>1</v>
       </c>
@@ -29569,7 +31062,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="26.4" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" s="9">
         <v>2</v>
       </c>
@@ -29585,7 +31078,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="26.4" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" s="9">
         <v>3</v>
       </c>
@@ -29601,7 +31094,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="11" spans="1:6" ht="39.6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11" s="9">
         <v>4</v>
       </c>
@@ -29618,22 +31111,22 @@
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A12" s="27"/>
-      <c r="B12" s="27"/>
-      <c r="C12" s="27"/>
-      <c r="D12" s="27"/>
-      <c r="E12" s="27"/>
-      <c r="F12" s="27"/>
+      <c r="A12" s="24"/>
+      <c r="B12" s="24"/>
+      <c r="C12" s="24"/>
+      <c r="D12" s="24"/>
+      <c r="E12" s="24"/>
+      <c r="F12" s="24"/>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A13" s="20" t="s">
+      <c r="A13" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="B13" s="21"/>
-      <c r="C13" s="21"/>
-      <c r="D13" s="21"/>
-      <c r="E13" s="21"/>
-      <c r="F13" s="21"/>
+      <c r="B13" s="17"/>
+      <c r="C13" s="17"/>
+      <c r="D13" s="17"/>
+      <c r="E13" s="17"/>
+      <c r="F13" s="17"/>
     </row>
     <row r="14" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A14" s="10" t="s">
@@ -29648,10 +31141,10 @@
       <c r="D14" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="E14" s="22" t="s">
+      <c r="E14" s="18" t="s">
         <v>10</v>
       </c>
-      <c r="F14" s="23"/>
+      <c r="F14" s="19"/>
     </row>
     <row r="15" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A15" s="11">
@@ -29666,12 +31159,12 @@
       <c r="D15" s="11" t="s">
         <v>40</v>
       </c>
-      <c r="E15" s="18" t="s">
+      <c r="E15" s="14" t="s">
         <v>59</v>
       </c>
-      <c r="F15" s="19"/>
-    </row>
-    <row r="16" spans="1:6" ht="46.8" x14ac:dyDescent="0.3">
+      <c r="F15" s="15"/>
+    </row>
+    <row r="16" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A16" s="11">
         <v>2</v>
       </c>
@@ -29684,12 +31177,12 @@
       <c r="D16" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="E16" s="18" t="s">
+      <c r="E16" s="14" t="s">
         <v>59</v>
       </c>
-      <c r="F16" s="19"/>
-    </row>
-    <row r="17" spans="1:6" ht="46.8" x14ac:dyDescent="0.3">
+      <c r="F16" s="15"/>
+    </row>
+    <row r="17" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A17" s="11">
         <v>3</v>
       </c>
@@ -29702,12 +31195,12 @@
       <c r="D17" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="E17" s="18" t="s">
+      <c r="E17" s="14" t="s">
         <v>59</v>
       </c>
-      <c r="F17" s="19"/>
-    </row>
-    <row r="18" spans="1:6" ht="46.8" x14ac:dyDescent="0.3">
+      <c r="F17" s="15"/>
+    </row>
+    <row r="18" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A18" s="11">
         <v>4</v>
       </c>
@@ -29720,10 +31213,10 @@
       <c r="D18" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="E18" s="18" t="s">
+      <c r="E18" s="14" t="s">
         <v>59</v>
       </c>
-      <c r="F18" s="19"/>
+      <c r="F18" s="15"/>
     </row>
     <row r="19" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A19" s="11">
@@ -29738,13 +31231,19 @@
       <c r="D19" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="E19" s="18" t="s">
+      <c r="E19" s="14" t="s">
         <v>59</v>
       </c>
-      <c r="F19" s="19"/>
+      <c r="F19" s="15"/>
     </row>
   </sheetData>
   <mergeCells count="14">
+    <mergeCell ref="A6:F6"/>
+    <mergeCell ref="A1:F1"/>
+    <mergeCell ref="A2:F2"/>
+    <mergeCell ref="A3:F3"/>
+    <mergeCell ref="A4:F4"/>
+    <mergeCell ref="A5:F5"/>
     <mergeCell ref="E18:F18"/>
     <mergeCell ref="E19:F19"/>
     <mergeCell ref="A12:F12"/>
@@ -29753,12 +31252,6 @@
     <mergeCell ref="E15:F15"/>
     <mergeCell ref="E16:F16"/>
     <mergeCell ref="E17:F17"/>
-    <mergeCell ref="A1:F1"/>
-    <mergeCell ref="A2:F2"/>
-    <mergeCell ref="A3:F3"/>
-    <mergeCell ref="A4:F4"/>
-    <mergeCell ref="A5:F5"/>
-    <mergeCell ref="A6:F6"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -29783,66 +31276,66 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="18" x14ac:dyDescent="0.35">
-      <c r="A1" s="16" t="s">
+      <c r="A1" s="22" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="17"/>
-      <c r="C1" s="17"/>
-      <c r="D1" s="17"/>
-      <c r="E1" s="17"/>
-      <c r="F1" s="17"/>
+      <c r="B1" s="23"/>
+      <c r="C1" s="23"/>
+      <c r="D1" s="23"/>
+      <c r="E1" s="23"/>
+      <c r="F1" s="23"/>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A2" s="14" t="s">
+      <c r="A2" s="20" t="s">
         <v>62</v>
       </c>
-      <c r="B2" s="15"/>
-      <c r="C2" s="15"/>
-      <c r="D2" s="15"/>
-      <c r="E2" s="15"/>
-      <c r="F2" s="15"/>
+      <c r="B2" s="21"/>
+      <c r="C2" s="21"/>
+      <c r="D2" s="21"/>
+      <c r="E2" s="21"/>
+      <c r="F2" s="21"/>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A3" s="14" t="s">
+      <c r="A3" s="20" t="s">
         <v>65</v>
       </c>
-      <c r="B3" s="15"/>
-      <c r="C3" s="15"/>
-      <c r="D3" s="15"/>
-      <c r="E3" s="15"/>
-      <c r="F3" s="15"/>
+      <c r="B3" s="21"/>
+      <c r="C3" s="21"/>
+      <c r="D3" s="21"/>
+      <c r="E3" s="21"/>
+      <c r="F3" s="21"/>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A4" s="14" t="s">
+      <c r="A4" s="20" t="s">
         <v>14</v>
       </c>
-      <c r="B4" s="15"/>
-      <c r="C4" s="15"/>
-      <c r="D4" s="15"/>
-      <c r="E4" s="15"/>
-      <c r="F4" s="15"/>
+      <c r="B4" s="21"/>
+      <c r="C4" s="21"/>
+      <c r="D4" s="21"/>
+      <c r="E4" s="21"/>
+      <c r="F4" s="21"/>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A5" s="14" t="s">
+      <c r="A5" s="20" t="s">
         <v>15</v>
       </c>
-      <c r="B5" s="15"/>
-      <c r="C5" s="15"/>
-      <c r="D5" s="15"/>
-      <c r="E5" s="15"/>
-      <c r="F5" s="15"/>
+      <c r="B5" s="21"/>
+      <c r="C5" s="21"/>
+      <c r="D5" s="21"/>
+      <c r="E5" s="21"/>
+      <c r="F5" s="21"/>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A6" s="14" t="s">
+      <c r="A6" s="20" t="s">
         <v>16</v>
       </c>
-      <c r="B6" s="15"/>
-      <c r="C6" s="15"/>
-      <c r="D6" s="15"/>
-      <c r="E6" s="15"/>
-      <c r="F6" s="15"/>
-    </row>
-    <row r="7" spans="1:6" ht="26.4" x14ac:dyDescent="0.3">
+      <c r="B6" s="21"/>
+      <c r="C6" s="21"/>
+      <c r="D6" s="21"/>
+      <c r="E6" s="21"/>
+      <c r="F6" s="21"/>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" s="8" t="s">
         <v>1</v>
       </c>
@@ -29880,7 +31373,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="26.4" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" s="9">
         <v>2</v>
       </c>
@@ -29896,7 +31389,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="26.4" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" s="9">
         <v>3</v>
       </c>
@@ -29912,7 +31405,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="11" spans="1:6" ht="39.6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11" s="9">
         <v>4</v>
       </c>
@@ -29929,22 +31422,22 @@
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A12" s="27"/>
-      <c r="B12" s="27"/>
-      <c r="C12" s="27"/>
-      <c r="D12" s="27"/>
-      <c r="E12" s="27"/>
-      <c r="F12" s="27"/>
+      <c r="A12" s="24"/>
+      <c r="B12" s="24"/>
+      <c r="C12" s="24"/>
+      <c r="D12" s="24"/>
+      <c r="E12" s="24"/>
+      <c r="F12" s="24"/>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A13" s="20" t="s">
+      <c r="A13" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="B13" s="21"/>
-      <c r="C13" s="21"/>
-      <c r="D13" s="21"/>
-      <c r="E13" s="21"/>
-      <c r="F13" s="21"/>
+      <c r="B13" s="17"/>
+      <c r="C13" s="17"/>
+      <c r="D13" s="17"/>
+      <c r="E13" s="17"/>
+      <c r="F13" s="17"/>
     </row>
     <row r="14" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A14" s="10" t="s">
@@ -29959,10 +31452,10 @@
       <c r="D14" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="E14" s="22" t="s">
+      <c r="E14" s="18" t="s">
         <v>10</v>
       </c>
-      <c r="F14" s="23"/>
+      <c r="F14" s="19"/>
     </row>
     <row r="15" spans="1:6" ht="33.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="11">
@@ -29977,10 +31470,10 @@
       <c r="D15" s="11" t="s">
         <v>40</v>
       </c>
-      <c r="E15" s="18" t="s">
+      <c r="E15" s="14" t="s">
         <v>59</v>
       </c>
-      <c r="F15" s="19"/>
+      <c r="F15" s="15"/>
     </row>
     <row r="16" spans="1:6" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A16" s="11">
@@ -29995,10 +31488,10 @@
       <c r="D16" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="E16" s="18" t="s">
+      <c r="E16" s="14" t="s">
         <v>59</v>
       </c>
-      <c r="F16" s="19"/>
+      <c r="F16" s="15"/>
     </row>
     <row r="17" spans="1:6" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A17" s="11">
@@ -30013,10 +31506,10 @@
       <c r="D17" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="E17" s="18" t="s">
+      <c r="E17" s="14" t="s">
         <v>59</v>
       </c>
-      <c r="F17" s="19"/>
+      <c r="F17" s="15"/>
     </row>
     <row r="18" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A18" s="11">
@@ -30031,13 +31524,19 @@
       <c r="D18" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="E18" s="18" t="s">
+      <c r="E18" s="14" t="s">
         <v>59</v>
       </c>
-      <c r="F18" s="19"/>
+      <c r="F18" s="15"/>
     </row>
   </sheetData>
   <mergeCells count="13">
+    <mergeCell ref="A6:F6"/>
+    <mergeCell ref="A1:F1"/>
+    <mergeCell ref="A2:F2"/>
+    <mergeCell ref="A3:F3"/>
+    <mergeCell ref="A4:F4"/>
+    <mergeCell ref="A5:F5"/>
     <mergeCell ref="E18:F18"/>
     <mergeCell ref="A12:F12"/>
     <mergeCell ref="A13:F13"/>
@@ -30045,12 +31544,6 @@
     <mergeCell ref="E15:F15"/>
     <mergeCell ref="E16:F16"/>
     <mergeCell ref="E17:F17"/>
-    <mergeCell ref="A1:F1"/>
-    <mergeCell ref="A2:F2"/>
-    <mergeCell ref="A3:F3"/>
-    <mergeCell ref="A4:F4"/>
-    <mergeCell ref="A5:F5"/>
-    <mergeCell ref="A6:F6"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -30060,8 +31553,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1BAED867-E04B-4248-B027-D68C91DBBC1A}">
   <dimension ref="A1:F18"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
-      <selection activeCell="E26" sqref="E26"/>
+    <sheetView topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="F20" sqref="A5:F20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -30075,66 +31568,66 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="18" x14ac:dyDescent="0.35">
-      <c r="A1" s="16" t="s">
+      <c r="A1" s="22" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="17"/>
-      <c r="C1" s="17"/>
-      <c r="D1" s="17"/>
-      <c r="E1" s="17"/>
-      <c r="F1" s="17"/>
+      <c r="B1" s="23"/>
+      <c r="C1" s="23"/>
+      <c r="D1" s="23"/>
+      <c r="E1" s="23"/>
+      <c r="F1" s="23"/>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A2" s="14" t="s">
+      <c r="A2" s="20" t="s">
         <v>62</v>
       </c>
-      <c r="B2" s="15"/>
-      <c r="C2" s="15"/>
-      <c r="D2" s="15"/>
-      <c r="E2" s="15"/>
-      <c r="F2" s="15"/>
+      <c r="B2" s="21"/>
+      <c r="C2" s="21"/>
+      <c r="D2" s="21"/>
+      <c r="E2" s="21"/>
+      <c r="F2" s="21"/>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A3" s="14" t="s">
+      <c r="A3" s="20" t="s">
         <v>69</v>
       </c>
-      <c r="B3" s="15"/>
-      <c r="C3" s="15"/>
-      <c r="D3" s="15"/>
-      <c r="E3" s="15"/>
-      <c r="F3" s="15"/>
+      <c r="B3" s="21"/>
+      <c r="C3" s="21"/>
+      <c r="D3" s="21"/>
+      <c r="E3" s="21"/>
+      <c r="F3" s="21"/>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A4" s="14" t="s">
+      <c r="A4" s="20" t="s">
         <v>14</v>
       </c>
-      <c r="B4" s="15"/>
-      <c r="C4" s="15"/>
-      <c r="D4" s="15"/>
-      <c r="E4" s="15"/>
-      <c r="F4" s="15"/>
+      <c r="B4" s="21"/>
+      <c r="C4" s="21"/>
+      <c r="D4" s="21"/>
+      <c r="E4" s="21"/>
+      <c r="F4" s="21"/>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A5" s="14" t="s">
+      <c r="A5" s="20" t="s">
         <v>15</v>
       </c>
-      <c r="B5" s="15"/>
-      <c r="C5" s="15"/>
-      <c r="D5" s="15"/>
-      <c r="E5" s="15"/>
-      <c r="F5" s="15"/>
+      <c r="B5" s="21"/>
+      <c r="C5" s="21"/>
+      <c r="D5" s="21"/>
+      <c r="E5" s="21"/>
+      <c r="F5" s="21"/>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A6" s="14" t="s">
+      <c r="A6" s="20" t="s">
         <v>16</v>
       </c>
-      <c r="B6" s="15"/>
-      <c r="C6" s="15"/>
-      <c r="D6" s="15"/>
-      <c r="E6" s="15"/>
-      <c r="F6" s="15"/>
-    </row>
-    <row r="7" spans="1:6" ht="26.4" x14ac:dyDescent="0.3">
+      <c r="B6" s="21"/>
+      <c r="C6" s="21"/>
+      <c r="D6" s="21"/>
+      <c r="E6" s="21"/>
+      <c r="F6" s="21"/>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" s="8" t="s">
         <v>1</v>
       </c>
@@ -30170,7 +31663,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="26.4" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" s="9">
         <v>2</v>
       </c>
@@ -30204,7 +31697,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="11" spans="1:6" ht="39.6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11" s="9">
         <v>4</v>
       </c>
@@ -30221,22 +31714,22 @@
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A12" s="27"/>
-      <c r="B12" s="27"/>
-      <c r="C12" s="27"/>
-      <c r="D12" s="27"/>
-      <c r="E12" s="27"/>
-      <c r="F12" s="27"/>
+      <c r="A12" s="24"/>
+      <c r="B12" s="24"/>
+      <c r="C12" s="24"/>
+      <c r="D12" s="24"/>
+      <c r="E12" s="24"/>
+      <c r="F12" s="24"/>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A13" s="20" t="s">
+      <c r="A13" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="B13" s="21"/>
-      <c r="C13" s="21"/>
-      <c r="D13" s="21"/>
-      <c r="E13" s="21"/>
-      <c r="F13" s="21"/>
+      <c r="B13" s="17"/>
+      <c r="C13" s="17"/>
+      <c r="D13" s="17"/>
+      <c r="E13" s="17"/>
+      <c r="F13" s="17"/>
     </row>
     <row r="14" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="10" t="s">
@@ -30251,10 +31744,10 @@
       <c r="D14" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="E14" s="22" t="s">
+      <c r="E14" s="18" t="s">
         <v>10</v>
       </c>
-      <c r="F14" s="23"/>
+      <c r="F14" s="19"/>
     </row>
     <row r="15" spans="1:6" ht="47.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="11">
@@ -30269,10 +31762,10 @@
       <c r="D15" s="11" t="s">
         <v>40</v>
       </c>
-      <c r="E15" s="18" t="s">
+      <c r="E15" s="14" t="s">
         <v>59</v>
       </c>
-      <c r="F15" s="19"/>
+      <c r="F15" s="15"/>
     </row>
     <row r="16" spans="1:6" ht="36" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="11">
@@ -30287,10 +31780,10 @@
       <c r="D16" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="E16" s="18" t="s">
+      <c r="E16" s="14" t="s">
         <v>59</v>
       </c>
-      <c r="F16" s="19"/>
+      <c r="F16" s="15"/>
     </row>
     <row r="17" spans="1:6" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A17" s="11">
@@ -30305,12 +31798,12 @@
       <c r="D17" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="E17" s="18" t="s">
+      <c r="E17" s="14" t="s">
         <v>59</v>
       </c>
-      <c r="F17" s="19"/>
-    </row>
-    <row r="18" spans="1:6" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="F17" s="15"/>
+    </row>
+    <row r="18" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A18" s="11">
         <v>4</v>
       </c>
@@ -30323,13 +31816,19 @@
       <c r="D18" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="E18" s="18" t="s">
+      <c r="E18" s="14" t="s">
         <v>59</v>
       </c>
-      <c r="F18" s="19"/>
+      <c r="F18" s="15"/>
     </row>
   </sheetData>
   <mergeCells count="13">
+    <mergeCell ref="A6:F6"/>
+    <mergeCell ref="A1:F1"/>
+    <mergeCell ref="A2:F2"/>
+    <mergeCell ref="A3:F3"/>
+    <mergeCell ref="A4:F4"/>
+    <mergeCell ref="A5:F5"/>
     <mergeCell ref="E18:F18"/>
     <mergeCell ref="A12:F12"/>
     <mergeCell ref="A13:F13"/>
@@ -30337,12 +31836,501 @@
     <mergeCell ref="E15:F15"/>
     <mergeCell ref="E16:F16"/>
     <mergeCell ref="E17:F17"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{100021D7-03C3-49AC-A28B-EE774336EE21}">
+  <dimension ref="A1:F14"/>
+  <sheetViews>
+    <sheetView topLeftCell="A3" workbookViewId="0">
+      <selection sqref="A1:F14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="14.6640625" customWidth="1"/>
+    <col min="2" max="2" width="35" customWidth="1"/>
+    <col min="3" max="3" width="16.44140625" customWidth="1"/>
+    <col min="4" max="4" width="13.44140625" customWidth="1"/>
+    <col min="5" max="5" width="16.77734375" customWidth="1"/>
+    <col min="6" max="6" width="17.77734375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A1" s="20" t="s">
+        <v>15</v>
+      </c>
+      <c r="B1" s="21"/>
+      <c r="C1" s="21"/>
+      <c r="D1" s="21"/>
+      <c r="E1" s="21"/>
+      <c r="F1" s="21"/>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A2" s="20" t="s">
+        <v>16</v>
+      </c>
+      <c r="B2" s="21"/>
+      <c r="C2" s="21"/>
+      <c r="D2" s="21"/>
+      <c r="E2" s="21"/>
+      <c r="F2" s="21"/>
+    </row>
+    <row r="3" spans="1:6" ht="26.4" x14ac:dyDescent="0.3">
+      <c r="A3" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="C3" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="D3" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="E3" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="F3" s="8" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="39.6" x14ac:dyDescent="0.3">
+      <c r="A4" s="9">
+        <v>1</v>
+      </c>
+      <c r="B4" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="C4" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="D4" s="9"/>
+      <c r="E4" s="9"/>
+      <c r="F4" s="9" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A5" s="9">
+        <v>2</v>
+      </c>
+      <c r="B5" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="C5" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="D5" s="9" t="s">
+        <v>71</v>
+      </c>
+      <c r="E5" s="9"/>
+      <c r="F5" s="9" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A6" s="9">
+        <v>3</v>
+      </c>
+      <c r="B6" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="C6" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="D6" s="9"/>
+      <c r="E6" s="9"/>
+      <c r="F6" s="9" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="39.6" x14ac:dyDescent="0.3">
+      <c r="A7" s="9">
+        <v>4</v>
+      </c>
+      <c r="B7" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="C7" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="D7" s="9"/>
+      <c r="E7" s="9"/>
+      <c r="F7" s="9" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A8" s="24"/>
+      <c r="B8" s="24"/>
+      <c r="C8" s="24"/>
+      <c r="D8" s="24"/>
+      <c r="E8" s="24"/>
+      <c r="F8" s="24"/>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A9" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="B9" s="17"/>
+      <c r="C9" s="17"/>
+      <c r="D9" s="17"/>
+      <c r="E9" s="17"/>
+      <c r="F9" s="17"/>
+    </row>
+    <row r="10" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A10" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="B10" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="C10" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="D10" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="E10" s="18" t="s">
+        <v>10</v>
+      </c>
+      <c r="F10" s="19"/>
+    </row>
+    <row r="11" spans="1:6" ht="39" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="11">
+        <v>1</v>
+      </c>
+      <c r="B11" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="C11" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="D11" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="E11" s="14" t="s">
+        <v>59</v>
+      </c>
+      <c r="F11" s="15"/>
+    </row>
+    <row r="12" spans="1:6" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="A12" s="11">
+        <v>2</v>
+      </c>
+      <c r="B12" s="12" t="s">
+        <v>68</v>
+      </c>
+      <c r="C12" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="D12" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="E12" s="14" t="s">
+        <v>59</v>
+      </c>
+      <c r="F12" s="15"/>
+    </row>
+    <row r="13" spans="1:6" ht="93.6" x14ac:dyDescent="0.3">
+      <c r="A13" s="11">
+        <v>3</v>
+      </c>
+      <c r="B13" s="12" t="s">
+        <v>70</v>
+      </c>
+      <c r="C13" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="D13" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="E13" s="14" t="s">
+        <v>59</v>
+      </c>
+      <c r="F13" s="15"/>
+    </row>
+    <row r="14" spans="1:6" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="A14" s="11">
+        <v>4</v>
+      </c>
+      <c r="B14" s="12" t="s">
+        <v>67</v>
+      </c>
+      <c r="C14" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="D14" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="E14" s="14" t="s">
+        <v>59</v>
+      </c>
+      <c r="F14" s="15"/>
+    </row>
+  </sheetData>
+  <mergeCells count="9">
+    <mergeCell ref="E12:F12"/>
+    <mergeCell ref="E13:F13"/>
+    <mergeCell ref="E14:F14"/>
     <mergeCell ref="A1:F1"/>
     <mergeCell ref="A2:F2"/>
-    <mergeCell ref="A3:F3"/>
-    <mergeCell ref="A4:F4"/>
-    <mergeCell ref="A5:F5"/>
-    <mergeCell ref="A6:F6"/>
+    <mergeCell ref="A8:F8"/>
+    <mergeCell ref="A9:F9"/>
+    <mergeCell ref="E10:F10"/>
+    <mergeCell ref="E11:F11"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{99629B96-2942-4597-9A87-5F0904C38490}">
+  <dimension ref="A1:F14"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:F14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="5" customWidth="1"/>
+    <col min="2" max="2" width="43.109375" customWidth="1"/>
+    <col min="3" max="3" width="18.6640625" customWidth="1"/>
+    <col min="4" max="4" width="16.5546875" customWidth="1"/>
+    <col min="6" max="6" width="17" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A1" s="20" t="s">
+        <v>15</v>
+      </c>
+      <c r="B1" s="21"/>
+      <c r="C1" s="21"/>
+      <c r="D1" s="21"/>
+      <c r="E1" s="21"/>
+      <c r="F1" s="21"/>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A2" s="20" t="s">
+        <v>16</v>
+      </c>
+      <c r="B2" s="21"/>
+      <c r="C2" s="21"/>
+      <c r="D2" s="21"/>
+      <c r="E2" s="21"/>
+      <c r="F2" s="21"/>
+    </row>
+    <row r="3" spans="1:6" ht="26.4" x14ac:dyDescent="0.3">
+      <c r="A3" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="C3" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="D3" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="E3" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="F3" s="8" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="39.6" x14ac:dyDescent="0.3">
+      <c r="A4" s="9">
+        <v>1</v>
+      </c>
+      <c r="B4" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="C4" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="D4" s="9"/>
+      <c r="E4" s="9"/>
+      <c r="F4" s="9" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="26.4" x14ac:dyDescent="0.3">
+      <c r="A5" s="9">
+        <v>2</v>
+      </c>
+      <c r="B5" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="C5" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="D5" s="9" t="s">
+        <v>71</v>
+      </c>
+      <c r="E5" s="9"/>
+      <c r="F5" s="9" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="26.4" x14ac:dyDescent="0.3">
+      <c r="A6" s="9">
+        <v>3</v>
+      </c>
+      <c r="B6" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="C6" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="D6" s="9"/>
+      <c r="E6" s="9"/>
+      <c r="F6" s="9" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="39.6" x14ac:dyDescent="0.3">
+      <c r="A7" s="9">
+        <v>4</v>
+      </c>
+      <c r="B7" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="C7" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="D7" s="9"/>
+      <c r="E7" s="9"/>
+      <c r="F7" s="9" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A8" s="24"/>
+      <c r="B8" s="24"/>
+      <c r="C8" s="24"/>
+      <c r="D8" s="24"/>
+      <c r="E8" s="24"/>
+      <c r="F8" s="24"/>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A9" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="B9" s="17"/>
+      <c r="C9" s="17"/>
+      <c r="D9" s="17"/>
+      <c r="E9" s="17"/>
+      <c r="F9" s="17"/>
+    </row>
+    <row r="10" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A10" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="B10" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="C10" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="D10" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="E10" s="18" t="s">
+        <v>10</v>
+      </c>
+      <c r="F10" s="19"/>
+    </row>
+    <row r="11" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A11" s="11">
+        <v>1</v>
+      </c>
+      <c r="B11" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="C11" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="D11" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="E11" s="14" t="s">
+        <v>59</v>
+      </c>
+      <c r="F11" s="15"/>
+    </row>
+    <row r="12" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A12" s="11">
+        <v>2</v>
+      </c>
+      <c r="B12" s="12" t="s">
+        <v>73</v>
+      </c>
+      <c r="C12" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="D12" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="E12" s="14" t="s">
+        <v>59</v>
+      </c>
+      <c r="F12" s="15"/>
+    </row>
+    <row r="13" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A13" s="11">
+        <v>3</v>
+      </c>
+      <c r="B13" s="12" t="s">
+        <v>74</v>
+      </c>
+      <c r="C13" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="D13" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="E13" s="14" t="s">
+        <v>59</v>
+      </c>
+      <c r="F13" s="15"/>
+    </row>
+    <row r="14" spans="1:6" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="A14" s="11">
+        <v>4</v>
+      </c>
+      <c r="B14" s="12" t="s">
+        <v>67</v>
+      </c>
+      <c r="C14" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="D14" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="E14" s="14" t="s">
+        <v>59</v>
+      </c>
+      <c r="F14" s="15"/>
+    </row>
+  </sheetData>
+  <mergeCells count="9">
+    <mergeCell ref="E12:F12"/>
+    <mergeCell ref="E13:F13"/>
+    <mergeCell ref="E14:F14"/>
+    <mergeCell ref="A1:F1"/>
+    <mergeCell ref="A2:F2"/>
+    <mergeCell ref="A8:F8"/>
+    <mergeCell ref="A9:F9"/>
+    <mergeCell ref="E10:F10"/>
+    <mergeCell ref="E11:F11"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
